--- a/apps/Automatización Cartera/CRM(50).xlsx
+++ b/apps/Automatización Cartera/CRM(50).xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X162"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,19 +568,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>60164</v>
+        <v>59432</v>
       </c>
       <c r="B4">
         <v>2025</v>
       </c>
       <c r="C4" t="str">
-        <v>mar</v>
+        <v>feb</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E4" t="str">
-        <v>Emerson Ramirez</v>
+        <v>Abel Alejandro Gramajo Soto</v>
       </c>
       <c r="F4" t="str">
         <v>Marjory Figueroa</v>
@@ -589,7 +589,7 @@
         <v>Autocompras</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I4" t="str">
         <v>FB - Atypical</v>
@@ -598,22 +598,10 @@
         <v>Abierta</v>
       </c>
       <c r="K4">
-        <v>69188.02</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Hyundai</v>
-      </c>
-      <c r="M4" t="str">
-        <v>Elantra GT</v>
-      </c>
-      <c r="N4">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>P-695KZX</v>
+        <v>Sin comunicación</v>
       </c>
       <c r="R4" t="str">
         <v>No definido</v>
@@ -622,10 +610,10 @@
         <v>No definido</v>
       </c>
       <c r="T4" t="str">
-        <v>mar</v>
+        <v>feb</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="W4" t="str">
         <v>null</v>
@@ -636,40 +624,52 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>60402</v>
+        <v>61445</v>
       </c>
       <c r="B5">
         <v>2025</v>
       </c>
       <c r="C5" t="str">
-        <v>mar</v>
+        <v>abr</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" t="str">
-        <v>Carlos Roberto De Leon Alvarez</v>
+        <v>Maria Magaly Morales Polanco</v>
       </c>
       <c r="F5" t="str">
-        <v>Danilo Diaz</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G5" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I5" t="str">
-        <v>WhatsApp</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J5" t="str">
         <v>Abierta</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>177982.46</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Toyota</v>
+      </c>
+      <c r="M5" t="str">
+        <v>RAV4 XLE AWD</v>
+      </c>
+      <c r="N5">
+        <v>2021</v>
       </c>
       <c r="P5" t="str">
-        <v>No le interesa</v>
+        <v>No definido</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>P-808LBL</v>
       </c>
       <c r="R5" t="str">
         <v>No definido</v>
@@ -678,10 +678,10 @@
         <v>No definido</v>
       </c>
       <c r="T5" t="str">
-        <v>mar</v>
+        <v>abr</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W5" t="str">
         <v>null</v>
@@ -692,22 +692,22 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>60417</v>
+        <v>62028</v>
       </c>
       <c r="B6">
         <v>2025</v>
       </c>
       <c r="C6" t="str">
-        <v>mar</v>
+        <v>abr</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6" t="str">
-        <v>Joel González</v>
+        <v>Servicios Educativos Formales, S.A.</v>
       </c>
       <c r="F6" t="str">
-        <v>Gabriela Cabrera</v>
+        <v>Doris Mejia</v>
       </c>
       <c r="G6" t="str">
         <v>Autocompras</v>
@@ -716,7 +716,7 @@
         <v>50</v>
       </c>
       <c r="I6" t="str">
-        <v>FB - Atypical V2</v>
+        <v>Referido</v>
       </c>
       <c r="J6" t="str">
         <v>Abierta</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="str">
-        <v>Sin comunicación</v>
+        <v>No definido</v>
       </c>
       <c r="R6" t="str">
         <v>No definido</v>
@@ -734,10 +734,10 @@
         <v>No definido</v>
       </c>
       <c r="T6" t="str">
-        <v>mar</v>
+        <v>abr</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="W6" t="str">
         <v>null</v>
@@ -748,22 +748,22 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>61334</v>
+        <v>62129</v>
       </c>
       <c r="B7">
         <v>2025</v>
       </c>
       <c r="C7" t="str">
-        <v>mar</v>
+        <v>abr</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="str">
-        <v>JULIÁN ELISEO LÓPEZ CHIM</v>
+        <v>Luis Rovidio Estrada Ruiz</v>
       </c>
       <c r="F7" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Yennifer Morales</v>
       </c>
       <c r="G7" t="str">
         <v>Autocompras</v>
@@ -772,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="str">
-        <v>FB - Atypical V2</v>
+        <v>Agencia</v>
       </c>
       <c r="J7" t="str">
         <v>Abierta</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="str">
-        <v>No definido</v>
+        <v>Sin comunicación</v>
       </c>
       <c r="R7" t="str">
         <v>No definido</v>
@@ -790,10 +790,10 @@
         <v>No definido</v>
       </c>
       <c r="T7" t="str">
-        <v>mar</v>
+        <v>abr</v>
       </c>
       <c r="U7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" t="str">
         <v>null</v>
@@ -804,53 +804,41 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>61445</v>
+        <v>62209</v>
       </c>
       <c r="B8">
         <v>2025</v>
       </c>
       <c r="C8" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="str">
-        <v>Maria Magaly Morales Polanco</v>
+        <v>JACKELINE ISABEL RODAS ALEJOS</v>
       </c>
       <c r="F8" t="str">
-        <v>Sergio Chavac</v>
+        <v>Gabriela Cabrera</v>
       </c>
       <c r="G8" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I8" t="str">
-        <v>Plataforma-Google</v>
+        <v>Agencia</v>
       </c>
       <c r="J8" t="str">
         <v>Abierta</v>
       </c>
       <c r="K8">
-        <v>177982.46</v>
-      </c>
-      <c r="L8" t="str">
-        <v>Toyota</v>
-      </c>
-      <c r="M8" t="str">
-        <v>RAV4 XLE AWD</v>
-      </c>
-      <c r="N8">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="P8" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q8" t="str">
-        <v>P-808LBL</v>
-      </c>
       <c r="R8" t="str">
         <v>No definido</v>
       </c>
@@ -858,10 +846,10 @@
         <v>No definido</v>
       </c>
       <c r="T8" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W8" t="str">
         <v>null</v>
@@ -872,22 +860,22 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>61748</v>
+        <v>62282</v>
       </c>
       <c r="B9">
         <v>2025</v>
       </c>
       <c r="C9" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="str">
-        <v>MIGUEL ANGEL DE LEON CARRERA</v>
+        <v>YENSY SUSETH MORÁN PINEDA</v>
       </c>
       <c r="F9" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Gabriela Cabrera</v>
       </c>
       <c r="G9" t="str">
         <v>Autocompras</v>
@@ -896,7 +884,7 @@
         <v>50</v>
       </c>
       <c r="I9" t="str">
-        <v>WhatsApp</v>
+        <v>Agencia</v>
       </c>
       <c r="J9" t="str">
         <v>Abierta</v>
@@ -905,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="str">
-        <v>Sin comunicación</v>
+        <v>No definido</v>
       </c>
       <c r="R9" t="str">
         <v>No definido</v>
@@ -914,10 +902,10 @@
         <v>No definido</v>
       </c>
       <c r="T9" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W9" t="str">
         <v>null</v>
@@ -928,52 +916,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>61754</v>
+        <v>62340</v>
       </c>
       <c r="B10">
         <v>2025</v>
       </c>
       <c r="C10" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" t="str">
-        <v>MARDOQUEO AJSIVINAC CAR</v>
+        <v>ANIVAL DE JESÚS RIVERA POCHÓN</v>
       </c>
       <c r="F10" t="str">
-        <v>Kevin Hernández</v>
+        <v>Gabriela Cabrera</v>
       </c>
       <c r="G10" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H10">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I10" t="str">
-        <v>WhatsApp</v>
+        <v>Agencia</v>
       </c>
       <c r="J10" t="str">
         <v>Abierta</v>
       </c>
       <c r="K10">
-        <v>63415.66</v>
-      </c>
-      <c r="L10" t="str">
-        <v>Volkswagen</v>
-      </c>
-      <c r="M10" t="str">
-        <v>SAVEIRO</v>
-      </c>
-      <c r="N10">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="P10" t="str">
-        <v>No le interesa</v>
-      </c>
-      <c r="Q10" t="str">
-        <v>P-344JRS</v>
+        <v>No definido</v>
       </c>
       <c r="R10" t="str">
         <v>No definido</v>
@@ -982,10 +958,10 @@
         <v>No definido</v>
       </c>
       <c r="T10" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W10" t="str">
         <v>null</v>
@@ -996,41 +972,53 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>61983</v>
+        <v>62539</v>
       </c>
       <c r="B11">
         <v>2025</v>
       </c>
       <c r="C11" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" t="str">
-        <v>JOSÉ JAVIER GUOX ESPINOZA</v>
+        <v>Stephanie Maria Garrido Galvez</v>
       </c>
       <c r="F11" t="str">
-        <v>Danilo Diaz</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G11" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I11" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J11" t="str">
         <v>Abierta</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>70203.28</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Mitsubishi</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Outlander SE 2WD</v>
+      </c>
+      <c r="N11">
+        <v>2018</v>
       </c>
       <c r="P11" t="str">
         <v>No definido</v>
       </c>
+      <c r="Q11" t="str">
+        <v>P-796JDD</v>
+      </c>
       <c r="R11" t="str">
         <v>No definido</v>
       </c>
@@ -1038,10 +1026,10 @@
         <v>No definido</v>
       </c>
       <c r="T11" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="U11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="W11" t="str">
         <v>null</v>
@@ -1052,22 +1040,22 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>61989</v>
+        <v>62592</v>
       </c>
       <c r="B12">
         <v>2025</v>
       </c>
       <c r="C12" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" t="str">
-        <v>Ever Gamaliel Ramos Véliz</v>
+        <v>Sami Walid Nasser Mencos</v>
       </c>
       <c r="F12" t="str">
-        <v>Danilo Diaz</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G12" t="str">
         <v>Autocompras</v>
@@ -1076,28 +1064,28 @@
         <v>75</v>
       </c>
       <c r="I12" t="str">
-        <v>Plataforma-Google</v>
+        <v>Recurrente</v>
       </c>
       <c r="J12" t="str">
         <v>Abierta</v>
       </c>
       <c r="K12">
-        <v>62935.68</v>
+        <v>0</v>
       </c>
       <c r="L12" t="str">
-        <v>Nissan</v>
+        <v>Changan</v>
       </c>
       <c r="M12" t="str">
-        <v>SENTRA SR</v>
+        <v>UNI-K</v>
       </c>
       <c r="N12">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="P12" t="str">
         <v>No definido</v>
       </c>
       <c r="Q12" t="str">
-        <v>P-083LBK</v>
+        <v>P-442HVP</v>
       </c>
       <c r="R12" t="str">
         <v>No definido</v>
@@ -1106,10 +1094,10 @@
         <v>No definido</v>
       </c>
       <c r="T12" t="str">
-        <v>abr</v>
+        <v>may</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="W12" t="str">
         <v>null</v>
@@ -1120,19 +1108,19 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>62028</v>
+        <v>62637</v>
       </c>
       <c r="B13">
         <v>2025</v>
       </c>
       <c r="C13" t="str">
-        <v>abr</v>
+        <v>jun</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E13" t="str">
-        <v>Servicios Educativos Formales, S.A.</v>
+        <v>Marlon Novany Boteo Zepeda</v>
       </c>
       <c r="F13" t="str">
         <v>Doris Mejia</v>
@@ -1141,19 +1129,28 @@
         <v>Autocompras</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I13" t="str">
-        <v>Referido</v>
+        <v>Agencia</v>
       </c>
       <c r="J13" t="str">
         <v>Abierta</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>90470.98</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Foton</v>
+      </c>
+      <c r="M13" t="str">
+        <v>TUNLDAND G7</v>
+      </c>
+      <c r="N13">
+        <v>2026</v>
       </c>
       <c r="P13" t="str">
-        <v>No definido</v>
+        <v>Sin comunicación</v>
       </c>
       <c r="R13" t="str">
         <v>No definido</v>
@@ -1162,10 +1159,10 @@
         <v>No definido</v>
       </c>
       <c r="T13" t="str">
-        <v>abr</v>
+        <v>jun</v>
       </c>
       <c r="U13">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="W13" t="str">
         <v>null</v>
@@ -1176,19 +1173,19 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>62087</v>
+        <v>62743</v>
       </c>
       <c r="B14">
         <v>2025</v>
       </c>
       <c r="C14" t="str">
-        <v>abr</v>
+        <v>jun</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E14" t="str">
-        <v>Brenda Patricia Posadas Ordoñez de Mejia</v>
+        <v>Karla Lucrecia Rojas Lopez</v>
       </c>
       <c r="F14" t="str">
         <v>Marjory Figueroa</v>
@@ -1197,32 +1194,20 @@
         <v>Autocompras</v>
       </c>
       <c r="H14">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I14" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J14" t="str">
         <v>Abierta</v>
       </c>
       <c r="K14">
-        <v>49565.66</v>
-      </c>
-      <c r="L14" t="str">
-        <v>Hyundai</v>
-      </c>
-      <c r="M14" t="str">
-        <v>Accent Gs</v>
-      </c>
-      <c r="N14">
-        <v>2014</v>
+        <v>0</v>
       </c>
       <c r="P14" t="str">
         <v>Sin comunicación</v>
       </c>
-      <c r="Q14" t="str">
-        <v>P-386LCY</v>
-      </c>
       <c r="R14" t="str">
         <v>No definido</v>
       </c>
@@ -1230,10 +1215,10 @@
         <v>No definido</v>
       </c>
       <c r="T14" t="str">
-        <v>abr</v>
+        <v>jun</v>
       </c>
       <c r="U14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="W14" t="str">
         <v>null</v>
@@ -1244,22 +1229,22 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>62129</v>
+        <v>62762</v>
       </c>
       <c r="B15">
         <v>2025</v>
       </c>
       <c r="C15" t="str">
-        <v>abr</v>
+        <v>jun</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E15" t="str">
-        <v>Luis Rovidio Estrada Ruiz</v>
+        <v>EVELYN ESTHER GÁMEZ SAZO</v>
       </c>
       <c r="F15" t="str">
-        <v>Yennifer Morales</v>
+        <v>Danilo Diaz</v>
       </c>
       <c r="G15" t="str">
         <v>Autocompras</v>
@@ -1268,7 +1253,7 @@
         <v>50</v>
       </c>
       <c r="I15" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J15" t="str">
         <v>Abierta</v>
@@ -1277,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="str">
-        <v>Sin comunicación</v>
+        <v>No definido</v>
       </c>
       <c r="R15" t="str">
         <v>No definido</v>
@@ -1286,10 +1271,10 @@
         <v>No definido</v>
       </c>
       <c r="T15" t="str">
-        <v>abr</v>
+        <v>jun</v>
       </c>
       <c r="U15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="W15" t="str">
         <v>null</v>
@@ -1300,19 +1285,19 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>62143</v>
+        <v>62896</v>
       </c>
       <c r="B16">
         <v>2025</v>
       </c>
       <c r="C16" t="str">
-        <v>may</v>
+        <v>jun</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E16" t="str">
-        <v>Cristian Geovanny Espinoza Martínez</v>
+        <v>Wagner Estybe Solano Alvarez</v>
       </c>
       <c r="F16" t="str">
         <v>Yennifer Morales</v>
@@ -1330,19 +1315,19 @@
         <v>Abierta</v>
       </c>
       <c r="K16">
-        <v>159272.24</v>
+        <v>0</v>
       </c>
       <c r="L16" t="str">
         <v>Foton</v>
       </c>
       <c r="M16" t="str">
-        <v>Aumark E</v>
+        <v>Aumark S</v>
       </c>
       <c r="N16">
         <v>2026</v>
       </c>
       <c r="P16" t="str">
-        <v>Sin capacidad de pago</v>
+        <v>No definido</v>
       </c>
       <c r="R16" t="str">
         <v>No definido</v>
@@ -1351,10 +1336,10 @@
         <v>No definido</v>
       </c>
       <c r="T16" t="str">
-        <v>may</v>
+        <v>jun</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="W16" t="str">
         <v>null</v>
@@ -1365,28 +1350,28 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>62209</v>
+        <v>62965</v>
       </c>
       <c r="B17">
         <v>2025</v>
       </c>
       <c r="C17" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17" t="str">
-        <v>JACKELINE ISABEL RODAS ALEJOS</v>
+        <v>Christopher Abimael Barillas Quiroa</v>
       </c>
       <c r="F17" t="str">
-        <v>Gabriela Cabrera</v>
+        <v>Doris Mejia</v>
       </c>
       <c r="G17" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I17" t="str">
         <v>Agencia</v>
@@ -1395,11 +1380,23 @@
         <v>Abierta</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>279279</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Mitsubishi</v>
+      </c>
+      <c r="M17" t="str">
+        <v>L200 GLS MID AT 4WD</v>
+      </c>
+      <c r="N17">
+        <v>2026</v>
       </c>
       <c r="P17" t="str">
         <v>No definido</v>
       </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
       <c r="R17" t="str">
         <v>No definido</v>
       </c>
@@ -1407,10 +1404,10 @@
         <v>No definido</v>
       </c>
       <c r="T17" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W17" t="str">
         <v>null</v>
@@ -1421,22 +1418,22 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>62237</v>
+        <v>62996</v>
       </c>
       <c r="B18">
         <v>2025</v>
       </c>
       <c r="C18" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E18" t="str">
-        <v>Natali Elena Gabriela Melgar</v>
+        <v>Isidro Medardo Gómez Solórzano</v>
       </c>
       <c r="F18" t="str">
-        <v>Brandon de Leon</v>
+        <v>Marjory Figueroa</v>
       </c>
       <c r="G18" t="str">
         <v>Autocompras</v>
@@ -1445,28 +1442,28 @@
         <v>75</v>
       </c>
       <c r="I18" t="str">
-        <v>Facebook</v>
+        <v>Recurrente activo</v>
       </c>
       <c r="J18" t="str">
         <v>Abierta</v>
       </c>
       <c r="K18">
-        <v>64272.57</v>
+        <v>44072.52</v>
       </c>
       <c r="L18" t="str">
-        <v>Hyundai</v>
+        <v>Mazda</v>
       </c>
       <c r="M18" t="str">
-        <v>Tucson</v>
+        <v>Mazda 3 I Touring</v>
       </c>
       <c r="N18">
         <v>2014</v>
       </c>
       <c r="P18" t="str">
-        <v>Sin comunicación</v>
+        <v>No definido</v>
       </c>
       <c r="Q18" t="str">
-        <v>P-447KDL</v>
+        <v>P-997LDJ</v>
       </c>
       <c r="R18" t="str">
         <v>No definido</v>
@@ -1475,10 +1472,10 @@
         <v>No definido</v>
       </c>
       <c r="T18" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W18" t="str">
         <v>null</v>
@@ -1489,55 +1486,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>62278</v>
+        <v>63004</v>
       </c>
       <c r="B19">
         <v>2025</v>
       </c>
       <c r="C19" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E19" t="str">
-        <v>Christopher Miguel Osorio Palencia</v>
+        <v>Jorge Alejandro Castellanos Rizzo</v>
       </c>
       <c r="F19" t="str">
-        <v>Sergio Chavac</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G19" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I19" t="str">
-        <v>Predio</v>
+        <v>Referido</v>
       </c>
       <c r="J19" t="str">
         <v>Abierta</v>
       </c>
       <c r="K19">
-        <v>69394.02</v>
-      </c>
-      <c r="L19" t="str">
-        <v>Hyundai</v>
-      </c>
-      <c r="M19" t="str">
-        <v>Elantra Limited</v>
-      </c>
-      <c r="N19">
-        <v>2018</v>
-      </c>
-      <c r="O19" t="str">
-        <v>Junior Gil (Mi AutoFacil)</v>
+        <v>0</v>
       </c>
       <c r="P19" t="str">
-        <v>No le interesa</v>
-      </c>
-      <c r="Q19" t="str">
-        <v>P-384LCY</v>
+        <v>Sin capacidad de pago</v>
       </c>
       <c r="R19" t="str">
         <v>No definido</v>
@@ -1546,10 +1528,10 @@
         <v>No definido</v>
       </c>
       <c r="T19" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W19" t="str">
         <v>null</v>
@@ -1560,37 +1542,46 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>62282</v>
+        <v>63008</v>
       </c>
       <c r="B20">
         <v>2025</v>
       </c>
       <c r="C20" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E20" t="str">
-        <v>YENSY SUSETH MORÁN PINEDA</v>
+        <v>Hazel Arlette Alonzo Navas</v>
       </c>
       <c r="F20" t="str">
-        <v>Gabriela Cabrera</v>
+        <v>Doris Mejia</v>
       </c>
       <c r="G20" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I20" t="str">
-        <v>Agencia</v>
+        <v>Recurrente activo</v>
       </c>
       <c r="J20" t="str">
         <v>Abierta</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>374946.59</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Nissan</v>
+      </c>
+      <c r="M20" t="str">
+        <v>X-Trail e-Power</v>
+      </c>
+      <c r="N20">
+        <v>2025</v>
       </c>
       <c r="P20" t="str">
         <v>No definido</v>
@@ -1602,10 +1593,10 @@
         <v>No definido</v>
       </c>
       <c r="T20" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W20" t="str">
         <v>null</v>
@@ -1616,46 +1607,37 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>62325</v>
+        <v>63035</v>
       </c>
       <c r="B21">
         <v>2025</v>
       </c>
       <c r="C21" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21" t="str">
-        <v>Mariela Cristina Flores Barrera</v>
+        <v>Kevin Leví Gómez Castillo</v>
       </c>
       <c r="F21" t="str">
-        <v>Carlos Amperez</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G21" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I21" t="str">
-        <v>Referido</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J21" t="str">
         <v>Abierta</v>
       </c>
       <c r="K21">
-        <v>404306.45</v>
-      </c>
-      <c r="L21" t="str">
-        <v>Nissan</v>
-      </c>
-      <c r="M21" t="str">
-        <v>Frontier PRO-4X AT</v>
-      </c>
-      <c r="N21">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P21" t="str">
         <v>No definido</v>
@@ -1667,10 +1649,10 @@
         <v>No definido</v>
       </c>
       <c r="T21" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W21" t="str">
         <v>null</v>
@@ -1681,22 +1663,22 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>62340</v>
+        <v>63047</v>
       </c>
       <c r="B22">
         <v>2025</v>
       </c>
       <c r="C22" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E22" t="str">
-        <v>ANIVAL DE JESÚS RIVERA POCHÓN</v>
+        <v>David García</v>
       </c>
       <c r="F22" t="str">
-        <v>Gabriela Cabrera</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G22" t="str">
         <v>Autocompras</v>
@@ -1705,7 +1687,7 @@
         <v>50</v>
       </c>
       <c r="I22" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J22" t="str">
         <v>Abierta</v>
@@ -1723,10 +1705,10 @@
         <v>No definido</v>
       </c>
       <c r="T22" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W22" t="str">
         <v>null</v>
@@ -1737,40 +1719,49 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>62463</v>
+        <v>63063</v>
       </c>
       <c r="B23">
         <v>2025</v>
       </c>
       <c r="C23" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" t="str">
-        <v>Manolo Agustin Solís Alvarado</v>
+        <v>Gerusbaal Gomez Y Gomez</v>
       </c>
       <c r="F23" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Doris Mejia</v>
       </c>
       <c r="G23" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I23" t="str">
-        <v>Predio</v>
+        <v>Agencia</v>
       </c>
       <c r="J23" t="str">
         <v>Abierta</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>175922.52</v>
+      </c>
+      <c r="L23" t="str">
+        <v>JIM</v>
+      </c>
+      <c r="M23" t="str">
+        <v>RE-MAX</v>
+      </c>
+      <c r="N23">
+        <v>2026</v>
       </c>
       <c r="P23" t="str">
-        <v>Sin comunicación</v>
+        <v>No definido</v>
       </c>
       <c r="R23" t="str">
         <v>No definido</v>
@@ -1779,10 +1770,10 @@
         <v>No definido</v>
       </c>
       <c r="T23" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W23" t="str">
         <v>null</v>
@@ -1793,46 +1784,37 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>62480</v>
+        <v>63075</v>
       </c>
       <c r="B24">
         <v>2025</v>
       </c>
       <c r="C24" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" t="str">
-        <v>Lilian Nohemy Monroy Argueta</v>
+        <v>Banny Stefany Cabrera Herrera</v>
       </c>
       <c r="F24" t="str">
-        <v>Daniel Jacobo</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G24" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H24">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I24" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J24" t="str">
         <v>Abierta</v>
       </c>
       <c r="K24">
-        <v>311979.99</v>
-      </c>
-      <c r="L24" t="str">
-        <v>Mitsubishi</v>
-      </c>
-      <c r="M24" t="str">
-        <v>L200 GLS 4WD</v>
-      </c>
-      <c r="N24">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P24" t="str">
         <v>No definido</v>
@@ -1844,10 +1826,10 @@
         <v>No definido</v>
       </c>
       <c r="T24" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W24" t="str">
         <v>null</v>
@@ -1858,19 +1840,19 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>62539</v>
+        <v>63106</v>
       </c>
       <c r="B25">
         <v>2025</v>
       </c>
       <c r="C25" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" t="str">
-        <v>Stephanie Maria Garrido Galvez</v>
+        <v>Gersón Geovany Gómez Contreras</v>
       </c>
       <c r="F25" t="str">
         <v>Sergio Chavac</v>
@@ -1879,31 +1861,19 @@
         <v>Autocompras</v>
       </c>
       <c r="H25">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I25" t="str">
-        <v>Predio</v>
+        <v>Referido</v>
       </c>
       <c r="J25" t="str">
         <v>Abierta</v>
       </c>
       <c r="K25">
-        <v>70203.28</v>
-      </c>
-      <c r="L25" t="str">
-        <v>Mitsubishi</v>
-      </c>
-      <c r="M25" t="str">
-        <v>Outlander SE 2WD</v>
-      </c>
-      <c r="N25">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="P25" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="Q25" t="str">
-        <v>P-796JDD</v>
+        <v>No le interesa</v>
       </c>
       <c r="R25" t="str">
         <v>No definido</v>
@@ -1912,10 +1882,10 @@
         <v>No definido</v>
       </c>
       <c r="T25" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W25" t="str">
         <v>null</v>
@@ -1926,22 +1896,22 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>62561</v>
+        <v>63113</v>
       </c>
       <c r="B26">
         <v>2025</v>
       </c>
       <c r="C26" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" t="str">
-        <v>constructora industrial y servicios electronicos Sociedad Anonima</v>
+        <v>Wilder Alexsander Sian Arrecis</v>
       </c>
       <c r="F26" t="str">
-        <v>Brandon de Leon</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G26" t="str">
         <v>Autocompras</v>
@@ -1956,19 +1926,22 @@
         <v>Abierta</v>
       </c>
       <c r="K26">
-        <v>180675.28</v>
+        <v>337200.37</v>
       </c>
       <c r="L26" t="str">
-        <v>JIM</v>
+        <v>Mitsubishi</v>
       </c>
       <c r="M26" t="str">
-        <v>Full Equipo 4x4</v>
+        <v>l200</v>
       </c>
       <c r="N26">
         <v>2026</v>
       </c>
       <c r="P26" t="str">
-        <v>No le interesa</v>
+        <v>No definido</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>carro nuevo</v>
       </c>
       <c r="R26" t="str">
         <v>No definido</v>
@@ -1977,10 +1950,10 @@
         <v>No definido</v>
       </c>
       <c r="T26" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W26" t="str">
         <v>null</v>
@@ -1991,19 +1964,19 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>62563</v>
+        <v>63123</v>
       </c>
       <c r="B27">
         <v>2025</v>
       </c>
       <c r="C27" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" t="str">
-        <v>Ricardo Alejandro Morales Orozco</v>
+        <v>Ruby Elizabeth Osoy Juárez</v>
       </c>
       <c r="F27" t="str">
         <v>Brandon de Leon</v>
@@ -2012,7 +1985,7 @@
         <v>Autocompras</v>
       </c>
       <c r="H27">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I27" t="str">
         <v>Referido</v>
@@ -2021,22 +1994,10 @@
         <v>Abierta</v>
       </c>
       <c r="K27">
-        <v>49517.66</v>
-      </c>
-      <c r="L27" t="str">
-        <v>Nissan</v>
-      </c>
-      <c r="M27" t="str">
-        <v>sentra SR</v>
-      </c>
-      <c r="N27">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="P27" t="str">
-        <v>No le interesa</v>
-      </c>
-      <c r="Q27" t="str">
-        <v>P-750LHG</v>
+        <v>No definido</v>
       </c>
       <c r="R27" t="str">
         <v>No definido</v>
@@ -2045,10 +2006,10 @@
         <v>No definido</v>
       </c>
       <c r="T27" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W27" t="str">
         <v>null</v>
@@ -2059,31 +2020,31 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>62592</v>
+        <v>63127</v>
       </c>
       <c r="B28">
         <v>2025</v>
       </c>
       <c r="C28" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" t="str">
-        <v>Sami Walid Nasser Mencos</v>
+        <v>LESTER IVAN SAMAYOA GONZALEZ</v>
       </c>
       <c r="F28" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G28" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H28">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I28" t="str">
-        <v>Recurrente</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J28" t="str">
         <v>Abierta</v>
@@ -2091,21 +2052,9 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" t="str">
-        <v>Changan</v>
-      </c>
-      <c r="M28" t="str">
-        <v>UNI-K</v>
-      </c>
-      <c r="N28">
-        <v>2024</v>
-      </c>
       <c r="P28" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q28" t="str">
-        <v>P-442HVP</v>
-      </c>
       <c r="R28" t="str">
         <v>No definido</v>
       </c>
@@ -2113,10 +2062,10 @@
         <v>No definido</v>
       </c>
       <c r="T28" t="str">
-        <v>may</v>
+        <v>jul</v>
       </c>
       <c r="U28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W28" t="str">
         <v>null</v>
@@ -2127,49 +2076,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>62637</v>
+        <v>63162</v>
       </c>
       <c r="B29">
         <v>2025</v>
       </c>
       <c r="C29" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="str">
-        <v>Marlon Novany Boteo Zepeda</v>
+        <v>ANA VIRGINIA PEREZ REYNOSA</v>
       </c>
       <c r="F29" t="str">
-        <v>Yennifer Morales</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G29" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H29">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I29" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J29" t="str">
         <v>Abierta</v>
       </c>
       <c r="K29">
-        <v>90470.98</v>
-      </c>
-      <c r="L29" t="str">
-        <v>Foton</v>
-      </c>
-      <c r="M29" t="str">
-        <v>TUNLDAND G7</v>
-      </c>
-      <c r="N29">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P29" t="str">
-        <v>Sin comunicación</v>
+        <v>No definido</v>
       </c>
       <c r="R29" t="str">
         <v>No definido</v>
@@ -2178,10 +2118,10 @@
         <v>No definido</v>
       </c>
       <c r="T29" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W29" t="str">
         <v>null</v>
@@ -2192,46 +2132,37 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>62663</v>
+        <v>63171</v>
       </c>
       <c r="B30">
         <v>2025</v>
       </c>
       <c r="C30" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" t="str">
-        <v>Edvin Arturo Silin Salazar</v>
+        <v>Jeannie Joanna Balcárcel Remón</v>
       </c>
       <c r="F30" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G30" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I30" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J30" t="str">
         <v>Abierta</v>
       </c>
       <c r="K30">
-        <v>141043.73</v>
-      </c>
-      <c r="L30" t="str">
-        <v>Bestune</v>
-      </c>
-      <c r="M30" t="str">
-        <v>T55 Sport</v>
-      </c>
-      <c r="N30">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="P30" t="str">
         <v>No definido</v>
@@ -2243,10 +2174,10 @@
         <v>No definido</v>
       </c>
       <c r="T30" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W30" t="str">
         <v>null</v>
@@ -2257,52 +2188,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>62668</v>
+        <v>63183</v>
       </c>
       <c r="B31">
         <v>2025</v>
       </c>
       <c r="C31" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" t="str">
-        <v>Jorge Rafael Perez Mollinedo</v>
+        <v>Alva Maritza Mazariegos Scott</v>
       </c>
       <c r="F31" t="str">
-        <v>Brandon de Leon</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G31" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I31" t="str">
-        <v>FB - Atypical V2</v>
+        <v>Agencia</v>
       </c>
       <c r="J31" t="str">
         <v>Abierta</v>
       </c>
       <c r="K31">
-        <v>99712.18</v>
-      </c>
-      <c r="L31" t="str">
-        <v>Foton</v>
-      </c>
-      <c r="M31" t="str">
-        <v>Aumark TX</v>
-      </c>
-      <c r="N31">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="P31" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="Q31" t="str">
-        <v>C-779BVX</v>
+        <v>Sin comunicación</v>
       </c>
       <c r="R31" t="str">
         <v>No definido</v>
@@ -2311,10 +2230,10 @@
         <v>No definido</v>
       </c>
       <c r="T31" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W31" t="str">
         <v>null</v>
@@ -2325,19 +2244,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>62674</v>
+        <v>63195</v>
       </c>
       <c r="B32">
         <v>2025</v>
       </c>
       <c r="C32" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" t="str">
-        <v>Leonel Montes de Oca</v>
+        <v>Hector Oswaldo Pamal Martinez</v>
       </c>
       <c r="F32" t="str">
         <v>Kevin Hernández</v>
@@ -2349,7 +2268,7 @@
         <v>50</v>
       </c>
       <c r="I32" t="str">
-        <v>Plataforma-Google</v>
+        <v>Referido</v>
       </c>
       <c r="J32" t="str">
         <v>Abierta</v>
@@ -2367,10 +2286,10 @@
         <v>No definido</v>
       </c>
       <c r="T32" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W32" t="str">
         <v>null</v>
@@ -2381,28 +2300,28 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>62743</v>
+        <v>63197</v>
       </c>
       <c r="B33">
         <v>2025</v>
       </c>
       <c r="C33" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E33" t="str">
-        <v>Karla Lucrecia Rojas Lopez</v>
+        <v>Alan Estuardo López Chun</v>
       </c>
       <c r="F33" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G33" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H33">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I33" t="str">
         <v>Predio</v>
@@ -2411,11 +2330,23 @@
         <v>Abierta</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>136754.45</v>
+      </c>
+      <c r="L33" t="str">
+        <v>Mazda</v>
+      </c>
+      <c r="M33" t="str">
+        <v>CX-5 SELECT AWD</v>
+      </c>
+      <c r="N33">
+        <v>2022</v>
       </c>
       <c r="P33" t="str">
         <v>Sin comunicación</v>
       </c>
+      <c r="Q33" t="str">
+        <v>P-486HVW</v>
+      </c>
       <c r="R33" t="str">
         <v>No definido</v>
       </c>
@@ -2423,10 +2354,10 @@
         <v>No definido</v>
       </c>
       <c r="T33" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W33" t="str">
         <v>null</v>
@@ -2437,19 +2368,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>62748</v>
+        <v>63210</v>
       </c>
       <c r="B34">
         <v>2025</v>
       </c>
       <c r="C34" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
       <c r="E34" t="str">
-        <v>Katerine Eloiza Muñoz Carrillo</v>
+        <v>Jorge Rolando Retana Morales</v>
       </c>
       <c r="F34" t="str">
         <v>Sergio Chavac</v>
@@ -2461,26 +2392,29 @@
         <v>75</v>
       </c>
       <c r="I34" t="str">
-        <v>Plataforma-Google</v>
+        <v>Referido</v>
       </c>
       <c r="J34" t="str">
         <v>Abierta</v>
       </c>
       <c r="K34">
-        <v>124384.69</v>
+        <v>24937.37</v>
       </c>
       <c r="L34" t="str">
-        <v>Foton</v>
+        <v>Kia</v>
       </c>
       <c r="M34" t="str">
-        <v>Aumark E</v>
+        <v>sportage lx fwd</v>
       </c>
       <c r="N34">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="P34" t="str">
         <v>No definido</v>
       </c>
+      <c r="Q34" t="str">
+        <v>P - 593KSC</v>
+      </c>
       <c r="R34" t="str">
         <v>No definido</v>
       </c>
@@ -2488,7 +2422,7 @@
         <v>No definido</v>
       </c>
       <c r="T34" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U34">
         <v>11</v>
@@ -2502,53 +2436,41 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>62754</v>
+        <v>63212</v>
       </c>
       <c r="B35">
         <v>2025</v>
       </c>
       <c r="C35" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D35">
         <v>11</v>
       </c>
       <c r="E35" t="str">
-        <v>Genesis Raquel Vásquez Villanueva</v>
+        <v>Julio Enrique Alvarado Tomas</v>
       </c>
       <c r="F35" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G35" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I35" t="str">
-        <v>Referido</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J35" t="str">
         <v>Abierta</v>
       </c>
       <c r="K35">
-        <v>56799.68</v>
-      </c>
-      <c r="L35" t="str">
-        <v>Changan</v>
-      </c>
-      <c r="M35" t="str">
-        <v>SUV CS35 FULL AT</v>
-      </c>
-      <c r="N35">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="P35" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q35" t="str">
-        <v>P-347GCQ</v>
-      </c>
       <c r="R35" t="str">
         <v>No definido</v>
       </c>
@@ -2556,7 +2478,7 @@
         <v>No definido</v>
       </c>
       <c r="T35" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U35">
         <v>11</v>
@@ -2570,22 +2492,22 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>62762</v>
+        <v>63215</v>
       </c>
       <c r="B36">
         <v>2025</v>
       </c>
       <c r="C36" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="str">
-        <v>EVELYN ESTHER GÁMEZ SAZO</v>
+        <v>Christopher Yoram Estrada Arana</v>
       </c>
       <c r="F36" t="str">
-        <v>Danilo Diaz</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G36" t="str">
         <v>Autocompras</v>
@@ -2594,7 +2516,7 @@
         <v>50</v>
       </c>
       <c r="I36" t="str">
-        <v>Plataforma-Google</v>
+        <v>Facebook</v>
       </c>
       <c r="J36" t="str">
         <v>Abierta</v>
@@ -2612,10 +2534,10 @@
         <v>No definido</v>
       </c>
       <c r="T36" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W36" t="str">
         <v>null</v>
@@ -2626,22 +2548,22 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>62770</v>
+        <v>63216</v>
       </c>
       <c r="B37">
         <v>2025</v>
       </c>
       <c r="C37" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="str">
-        <v>Ramiro Estuardo Sánchez Figueroa</v>
+        <v>Melany Quintanilla Monterroso</v>
       </c>
       <c r="F37" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G37" t="str">
         <v>Autocompras</v>
@@ -2650,28 +2572,28 @@
         <v>75</v>
       </c>
       <c r="I37" t="str">
-        <v>Referido</v>
+        <v>Recurrente activo</v>
       </c>
       <c r="J37" t="str">
         <v>Abierta</v>
       </c>
       <c r="K37">
-        <v>268343.14</v>
+        <v>345195.69</v>
       </c>
       <c r="L37" t="str">
-        <v>Nissan</v>
+        <v>RAM</v>
       </c>
       <c r="M37" t="str">
-        <v>Frontier 4x4</v>
+        <v>BIG HORN</v>
       </c>
       <c r="N37">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="P37" t="str">
         <v>No definido</v>
       </c>
       <c r="Q37" t="str">
-        <v>P-751KFV</v>
+        <v>P-476HWR</v>
       </c>
       <c r="R37" t="str">
         <v>No definido</v>
@@ -2680,10 +2602,10 @@
         <v>No definido</v>
       </c>
       <c r="T37" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W37" t="str">
         <v>null</v>
@@ -2694,22 +2616,22 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>62795</v>
+        <v>63230</v>
       </c>
       <c r="B38">
         <v>2025</v>
       </c>
       <c r="C38" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" t="str">
-        <v>Juan José Zaguí Mulato</v>
+        <v>Lesvia Araceli Vasquez Sunun</v>
       </c>
       <c r="F38" t="str">
-        <v>Sergio Chavac</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G38" t="str">
         <v>Autocompras</v>
@@ -2718,7 +2640,7 @@
         <v>50</v>
       </c>
       <c r="I38" t="str">
-        <v>Agencia</v>
+        <v>Facebook</v>
       </c>
       <c r="J38" t="str">
         <v>Abierta</v>
@@ -2727,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="str">
-        <v>Credito en otra empresa</v>
+        <v>No definido</v>
       </c>
       <c r="R38" t="str">
         <v>No definido</v>
@@ -2736,10 +2658,10 @@
         <v>No definido</v>
       </c>
       <c r="T38" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W38" t="str">
         <v>null</v>
@@ -2750,53 +2672,41 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>62812</v>
+        <v>63235</v>
       </c>
       <c r="B39">
         <v>2025</v>
       </c>
       <c r="C39" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E39" t="str">
-        <v>Cristian Fernando Paz Morales</v>
+        <v>Joel Eduardo Cambran Rodriguez</v>
       </c>
       <c r="F39" t="str">
-        <v>Yennifer Morales</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G39" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I39" t="str">
-        <v>Plataforma-Google</v>
+        <v>Referido</v>
       </c>
       <c r="J39" t="str">
         <v>Abierta</v>
       </c>
       <c r="K39">
-        <v>125478.69</v>
-      </c>
-      <c r="L39" t="str">
-        <v>Suzuki</v>
-      </c>
-      <c r="M39" t="str">
-        <v>JIMNY</v>
-      </c>
-      <c r="N39">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="P39" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q39" t="str">
-        <v>P-650HYM</v>
-      </c>
       <c r="R39" t="str">
         <v>No definido</v>
       </c>
@@ -2804,10 +2714,10 @@
         <v>No definido</v>
       </c>
       <c r="T39" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U39">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W39" t="str">
         <v>null</v>
@@ -2818,46 +2728,37 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>62819</v>
+        <v>63239</v>
       </c>
       <c r="B40">
         <v>2025</v>
       </c>
       <c r="C40" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E40" t="str">
-        <v>Mayra Maribel Caal Choc</v>
+        <v>María Renee Vásquez García</v>
       </c>
       <c r="F40" t="str">
-        <v>Yennifer Morales</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G40" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I40" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J40" t="str">
         <v>Abierta</v>
       </c>
       <c r="K40">
-        <v>212189.02</v>
-      </c>
-      <c r="L40" t="str">
-        <v>Isuzu</v>
-      </c>
-      <c r="M40" t="str">
-        <v>D-max</v>
-      </c>
-      <c r="N40">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="str">
         <v>No definido</v>
@@ -2869,10 +2770,10 @@
         <v>No definido</v>
       </c>
       <c r="T40" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U40">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W40" t="str">
         <v>null</v>
@@ -2883,52 +2784,52 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>62827</v>
+        <v>63248</v>
       </c>
       <c r="B41">
         <v>2025</v>
       </c>
       <c r="C41" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E41" t="str">
-        <v>Gary Andrews Junior Cabrera Barrera</v>
+        <v>Cristian Odahil López Garrido</v>
       </c>
       <c r="F41" t="str">
-        <v>Brandon de Leon</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G41" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H41">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I41" t="str">
-        <v>Predio</v>
+        <v>FB - Atypical</v>
       </c>
       <c r="J41" t="str">
         <v>Abierta</v>
       </c>
       <c r="K41">
-        <v>112175.35</v>
+        <v>66546.57</v>
       </c>
       <c r="L41" t="str">
-        <v>Honda</v>
+        <v>Mitsubishi</v>
       </c>
       <c r="M41" t="str">
-        <v>CRV EX 2WD AT</v>
+        <v>OUTLANDER</v>
       </c>
       <c r="N41">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P41" t="str">
         <v>No definido</v>
       </c>
       <c r="Q41" t="str">
-        <v>P-326GBY</v>
+        <v>P-209LDB</v>
       </c>
       <c r="R41" t="str">
         <v>No definido</v>
@@ -2937,10 +2838,10 @@
         <v>No definido</v>
       </c>
       <c r="T41" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U41">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W41" t="str">
         <v>null</v>
@@ -2951,53 +2852,41 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>62847</v>
+        <v>63253</v>
       </c>
       <c r="B42">
         <v>2025</v>
       </c>
       <c r="C42" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E42" t="str">
-        <v>Mary Florycelda Barrillas Mayorga</v>
+        <v>Juan Pablo Sajche Santizo</v>
       </c>
       <c r="F42" t="str">
-        <v>Sergio Chavac</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G42" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H42">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I42" t="str">
-        <v>Referido</v>
+        <v>FB - Atypical</v>
       </c>
       <c r="J42" t="str">
         <v>Abierta</v>
       </c>
       <c r="K42">
-        <v>116595.29</v>
-      </c>
-      <c r="L42" t="str">
-        <v>Mitsubishi</v>
-      </c>
-      <c r="M42" t="str">
-        <v>L200 GLS 4WD</v>
-      </c>
-      <c r="N42">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q42" t="str">
-        <v>P-514GDV</v>
-      </c>
       <c r="R42" t="str">
         <v>No definido</v>
       </c>
@@ -3005,10 +2894,10 @@
         <v>No definido</v>
       </c>
       <c r="T42" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U42">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="W42" t="str">
         <v>null</v>
@@ -3019,22 +2908,22 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>62853</v>
+        <v>63262</v>
       </c>
       <c r="B43">
         <v>2025</v>
       </c>
       <c r="C43" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E43" t="str">
-        <v>Josue David García González</v>
+        <v>Lesbia Liseth Pérez Ramírez</v>
       </c>
       <c r="F43" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G43" t="str">
         <v>Autocompras</v>
@@ -3043,7 +2932,7 @@
         <v>50</v>
       </c>
       <c r="I43" t="str">
-        <v>WhatsApp</v>
+        <v>Predio</v>
       </c>
       <c r="J43" t="str">
         <v>Abierta</v>
@@ -3061,10 +2950,10 @@
         <v>No definido</v>
       </c>
       <c r="T43" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U43">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="W43" t="str">
         <v>null</v>
@@ -3075,46 +2964,37 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>62859</v>
+        <v>63263</v>
       </c>
       <c r="B44">
         <v>2025</v>
       </c>
       <c r="C44" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E44" t="str">
-        <v>Rubén Arnoldo Guzmán Corzantes</v>
+        <v>Dimas Manuel Colindres Hernández</v>
       </c>
       <c r="F44" t="str">
-        <v>Yennifer Morales</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G44" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H44">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I44" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J44" t="str">
         <v>Abierta</v>
       </c>
       <c r="K44">
-        <v>256273.89</v>
-      </c>
-      <c r="L44" t="str">
-        <v>Nissan</v>
-      </c>
-      <c r="M44" t="str">
-        <v>frontier</v>
-      </c>
-      <c r="N44">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P44" t="str">
         <v>No definido</v>
@@ -3126,10 +3006,10 @@
         <v>No definido</v>
       </c>
       <c r="T44" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="W44" t="str">
         <v>null</v>
@@ -3140,28 +3020,28 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>62880</v>
+        <v>63264</v>
       </c>
       <c r="B45">
         <v>2025</v>
       </c>
       <c r="C45" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E45" t="str">
-        <v>Josué Azarael Pérez García</v>
+        <v>Felix Romeo Torres Culajay</v>
       </c>
       <c r="F45" t="str">
-        <v>Yennifer Morales</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G45" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H45">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I45" t="str">
         <v>Recurrente activo</v>
@@ -3170,16 +3050,7 @@
         <v>Abierta</v>
       </c>
       <c r="K45">
-        <v>255903.89</v>
-      </c>
-      <c r="L45" t="str">
-        <v>Nissan</v>
-      </c>
-      <c r="M45" t="str">
-        <v>Frontier</v>
-      </c>
-      <c r="N45">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P45" t="str">
         <v>No definido</v>
@@ -3191,10 +3062,10 @@
         <v>No definido</v>
       </c>
       <c r="T45" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="W45" t="str">
         <v>null</v>
@@ -3205,22 +3076,22 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>62881</v>
+        <v>63272</v>
       </c>
       <c r="B46">
         <v>2025</v>
       </c>
       <c r="C46" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E46" t="str">
-        <v>CARLOS SEBASTIAN VARELA ORTEGA</v>
+        <v>Hilda Patricia Galvez Miranda</v>
       </c>
       <c r="F46" t="str">
-        <v>Daniel Jacobo</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G46" t="str">
         <v>Autocompras</v>
@@ -3229,7 +3100,7 @@
         <v>50</v>
       </c>
       <c r="I46" t="str">
-        <v>Facebook</v>
+        <v>Agencia</v>
       </c>
       <c r="J46" t="str">
         <v>Abierta</v>
@@ -3247,10 +3118,10 @@
         <v>No definido</v>
       </c>
       <c r="T46" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U46">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="W46" t="str">
         <v>null</v>
@@ -3261,50 +3132,53 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>62891</v>
+        <v>63274</v>
       </c>
       <c r="B47">
         <v>2025</v>
       </c>
       <c r="C47" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E47" t="str">
-        <v>David Eliseo Aguilar Contreras</v>
+        <v>Alan Omar Marroquin Aragon</v>
       </c>
       <c r="F47" t="str">
-        <v>Yennifer Morales</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G47" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H47">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I47" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J47" t="str">
         <v>Abierta</v>
       </c>
       <c r="K47">
-        <v>173750.01</v>
+        <v>88840.84</v>
       </c>
       <c r="L47" t="str">
-        <v>Foton</v>
+        <v>Hyundai</v>
       </c>
       <c r="M47" t="str">
-        <v>Aumark S</v>
+        <v>Tucson se AWD</v>
       </c>
       <c r="N47">
-        <v>2026</v>
+        <v>2018</v>
       </c>
       <c r="P47" t="str">
         <v>No definido</v>
       </c>
+      <c r="Q47" t="str">
+        <v>P-074LGX</v>
+      </c>
       <c r="R47" t="str">
         <v>No definido</v>
       </c>
@@ -3312,10 +3186,10 @@
         <v>No definido</v>
       </c>
       <c r="T47" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U47">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="W47" t="str">
         <v>null</v>
@@ -3326,22 +3200,22 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>62896</v>
+        <v>63277</v>
       </c>
       <c r="B48">
         <v>2025</v>
       </c>
       <c r="C48" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E48" t="str">
-        <v>Wagner Estybe Solano Alvarez</v>
+        <v>Prueba Jonathan Lopez Buch</v>
       </c>
       <c r="F48" t="str">
-        <v>Yennifer Morales</v>
+        <v>Danilo Diaz</v>
       </c>
       <c r="G48" t="str">
         <v>Autocompras</v>
@@ -3350,26 +3224,29 @@
         <v>75</v>
       </c>
       <c r="I48" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J48" t="str">
         <v>Abierta</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>116182.59</v>
       </c>
       <c r="L48" t="str">
-        <v>Foton</v>
+        <v>Mazda</v>
       </c>
       <c r="M48" t="str">
-        <v>Aumark S</v>
+        <v>cx5 touring fwd</v>
       </c>
       <c r="N48">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="P48" t="str">
         <v>No definido</v>
       </c>
+      <c r="Q48" t="str">
+        <v>p-931jvw</v>
+      </c>
       <c r="R48" t="str">
         <v>No definido</v>
       </c>
@@ -3377,10 +3254,10 @@
         <v>No definido</v>
       </c>
       <c r="T48" t="str">
-        <v>jun</v>
+        <v>ago</v>
       </c>
       <c r="U48">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="W48" t="str">
         <v>null</v>
@@ -3391,53 +3268,41 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>62906</v>
+        <v>63280</v>
       </c>
       <c r="B49">
         <v>2025</v>
       </c>
       <c r="C49" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E49" t="str">
-        <v>Angel Antonio Manzo Donis</v>
+        <v>Jorge Mario Tambasco Ruano</v>
       </c>
       <c r="F49" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G49" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H49">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I49" t="str">
-        <v>WhatsApp</v>
+        <v>Referido</v>
       </c>
       <c r="J49" t="str">
         <v>Abierta</v>
       </c>
       <c r="K49">
-        <v>78629.66</v>
-      </c>
-      <c r="L49" t="str">
-        <v>Mazda</v>
-      </c>
-      <c r="M49" t="str">
-        <v>CX-5 SPORT 2WD</v>
-      </c>
-      <c r="N49">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="P49" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q49" t="str">
-        <v>P-208LDB</v>
-      </c>
       <c r="R49" t="str">
         <v>No definido</v>
       </c>
@@ -3445,10 +3310,10 @@
         <v>No definido</v>
       </c>
       <c r="T49" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="W49" t="str">
         <v>null</v>
@@ -3459,53 +3324,41 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>62908</v>
+        <v>63284</v>
       </c>
       <c r="B50">
         <v>2025</v>
       </c>
       <c r="C50" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E50" t="str">
-        <v>Katherine Marisela Zet Batres</v>
+        <v>Jonh Roger Bryan Ordóñez Cochojil</v>
       </c>
       <c r="F50" t="str">
-        <v>Brandon de Leon</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G50" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H50">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I50" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J50" t="str">
         <v>Abierta</v>
       </c>
       <c r="K50">
-        <v>49517.66</v>
-      </c>
-      <c r="L50" t="str">
-        <v>Mazda</v>
-      </c>
-      <c r="M50" t="str">
-        <v>3 s grand turing</v>
-      </c>
-      <c r="N50">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="P50" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q50" t="str">
-        <v>P-480KFM</v>
-      </c>
       <c r="R50" t="str">
         <v>No definido</v>
       </c>
@@ -3513,10 +3366,10 @@
         <v>No definido</v>
       </c>
       <c r="T50" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="W50" t="str">
         <v>null</v>
@@ -3527,22 +3380,22 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>62911</v>
+        <v>63287</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E51" t="str">
-        <v>Juan Carlos Reynosa Villalta</v>
+        <v>Karin Emilia Dominguez Aceituno</v>
       </c>
       <c r="F51" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G51" t="str">
         <v>Autocompras</v>
@@ -3551,7 +3404,7 @@
         <v>50</v>
       </c>
       <c r="I51" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J51" t="str">
         <v>Abierta</v>
@@ -3569,10 +3422,10 @@
         <v>No definido</v>
       </c>
       <c r="T51" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="W51" t="str">
         <v>null</v>
@@ -3583,22 +3436,22 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>62923</v>
+        <v>63305</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E52" t="str">
-        <v>Dennys Bolaños</v>
+        <v>Andrés Vladimir Hernández Mejia</v>
       </c>
       <c r="F52" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G52" t="str">
         <v>Autocompras</v>
@@ -3625,10 +3478,10 @@
         <v>No definido</v>
       </c>
       <c r="T52" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U52">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="W52" t="str">
         <v>null</v>
@@ -3639,19 +3492,19 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>62924</v>
+        <v>63308</v>
       </c>
       <c r="B53">
         <v>2025</v>
       </c>
       <c r="C53" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E53" t="str">
-        <v>Melida Edelmira Corado Montepeque</v>
+        <v>Mayerly Anallely Morataya Cruz</v>
       </c>
       <c r="F53" t="str">
         <v>Sergio Chavac</v>
@@ -3663,7 +3516,7 @@
         <v>50</v>
       </c>
       <c r="I53" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J53" t="str">
         <v>Abierta</v>
@@ -3681,10 +3534,10 @@
         <v>No definido</v>
       </c>
       <c r="T53" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U53">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="W53" t="str">
         <v>null</v>
@@ -3695,53 +3548,41 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>62936</v>
+        <v>63310</v>
       </c>
       <c r="B54">
         <v>2025</v>
       </c>
       <c r="C54" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E54" t="str">
-        <v>Carlos Alberto Osorio Villalta</v>
+        <v>Miguel Lara</v>
       </c>
       <c r="F54" t="str">
-        <v>Sergio Chavac</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G54" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H54">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I54" t="str">
-        <v>Referido</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J54" t="str">
         <v>Abierta</v>
       </c>
       <c r="K54">
-        <v>137142.02</v>
-      </c>
-      <c r="L54" t="str">
-        <v>Mazda</v>
-      </c>
-      <c r="M54" t="str">
-        <v>CX-5 GRAND TOURING 4X2</v>
-      </c>
-      <c r="N54">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="P54" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q54" t="str">
-        <v>P-581LBL</v>
-      </c>
       <c r="R54" t="str">
         <v>No definido</v>
       </c>
@@ -3749,10 +3590,10 @@
         <v>No definido</v>
       </c>
       <c r="T54" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U54">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="W54" t="str">
         <v>null</v>
@@ -3763,19 +3604,19 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>62937</v>
+        <v>63314</v>
       </c>
       <c r="B55">
         <v>2025</v>
       </c>
       <c r="C55" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E55" t="str">
-        <v>Madelyn Gabriela mazariegos Perez</v>
+        <v>Adán De Jesús Erazo Guevara</v>
       </c>
       <c r="F55" t="str">
         <v>Sergio Chavac</v>
@@ -3787,7 +3628,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="str">
-        <v>Predio</v>
+        <v>Referido</v>
       </c>
       <c r="J55" t="str">
         <v>Abierta</v>
@@ -3805,10 +3646,10 @@
         <v>No definido</v>
       </c>
       <c r="T55" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U55">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="W55" t="str">
         <v>null</v>
@@ -3819,22 +3660,22 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>62940</v>
+        <v>63315</v>
       </c>
       <c r="B56">
         <v>2025</v>
       </c>
       <c r="C56" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E56" t="str">
-        <v>Andrea Del pilar Papahiu Martínez</v>
+        <v>Leticia Jeanette Padilla Davila De Reyes</v>
       </c>
       <c r="F56" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G56" t="str">
         <v>Autocompras</v>
@@ -3843,7 +3684,7 @@
         <v>50</v>
       </c>
       <c r="I56" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J56" t="str">
         <v>Abierta</v>
@@ -3861,10 +3702,10 @@
         <v>No definido</v>
       </c>
       <c r="T56" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U56">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="W56" t="str">
         <v>null</v>
@@ -3875,22 +3716,22 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>62947</v>
+        <v>63328</v>
       </c>
       <c r="B57">
         <v>2025</v>
       </c>
       <c r="C57" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E57" t="str">
-        <v>Daniel Benitez Zepeda</v>
+        <v>Kevin Reynosa</v>
       </c>
       <c r="F57" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G57" t="str">
         <v>Autocompras</v>
@@ -3899,7 +3740,7 @@
         <v>50</v>
       </c>
       <c r="I57" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J57" t="str">
         <v>Abierta</v>
@@ -3917,10 +3758,10 @@
         <v>No definido</v>
       </c>
       <c r="T57" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U57">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="W57" t="str">
         <v>null</v>
@@ -3931,22 +3772,22 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>62949</v>
+        <v>63332</v>
       </c>
       <c r="B58">
         <v>2025</v>
       </c>
       <c r="C58" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E58" t="str">
-        <v>MARIO LUDWIN ALFARO MENDEZ</v>
+        <v>Juan Carlos Bernardo Sandoval Arana</v>
       </c>
       <c r="F58" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G58" t="str">
         <v>Autocompras</v>
@@ -3955,7 +3796,7 @@
         <v>50</v>
       </c>
       <c r="I58" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J58" t="str">
         <v>Abierta</v>
@@ -3973,10 +3814,10 @@
         <v>No definido</v>
       </c>
       <c r="T58" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U58">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="W58" t="str">
         <v>null</v>
@@ -3987,22 +3828,22 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>62950</v>
+        <v>63335</v>
       </c>
       <c r="B59">
         <v>2025</v>
       </c>
       <c r="C59" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E59" t="str">
-        <v>Wilson Josue Lopez Rodriguez</v>
+        <v>Jennifer Paola López Ochoa</v>
       </c>
       <c r="F59" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G59" t="str">
         <v>Autocompras</v>
@@ -4011,7 +3852,7 @@
         <v>50</v>
       </c>
       <c r="I59" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J59" t="str">
         <v>Abierta</v>
@@ -4029,10 +3870,10 @@
         <v>No definido</v>
       </c>
       <c r="T59" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U59">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="W59" t="str">
         <v>null</v>
@@ -4043,22 +3884,22 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>62951</v>
+        <v>63336</v>
       </c>
       <c r="B60">
         <v>2025</v>
       </c>
       <c r="C60" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E60" t="str">
-        <v>María Fernanda Vivas Veliz</v>
+        <v>Efraín Estrada Valenzuela</v>
       </c>
       <c r="F60" t="str">
-        <v>Sergio Chavac</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G60" t="str">
         <v>Autocompras</v>
@@ -4067,7 +3908,7 @@
         <v>50</v>
       </c>
       <c r="I60" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J60" t="str">
         <v>Abierta</v>
@@ -4076,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="str">
-        <v>No definido</v>
+        <v>No le interesa</v>
       </c>
       <c r="R60" t="str">
         <v>No definido</v>
@@ -4085,10 +3926,10 @@
         <v>No definido</v>
       </c>
       <c r="T60" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U60">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="W60" t="str">
         <v>null</v>
@@ -4099,19 +3940,19 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>62952</v>
+        <v>63337</v>
       </c>
       <c r="B61">
         <v>2025</v>
       </c>
       <c r="C61" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E61" t="str">
-        <v>Josué Eliseo Guerra De La Rosa</v>
+        <v>Edwin Emir Elías Alonzo</v>
       </c>
       <c r="F61" t="str">
         <v>Sergio Chavac</v>
@@ -4120,32 +3961,20 @@
         <v>Autocompras</v>
       </c>
       <c r="H61">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I61" t="str">
-        <v>Referido</v>
+        <v>Recurrente</v>
       </c>
       <c r="J61" t="str">
         <v>Abierta</v>
       </c>
       <c r="K61">
-        <v>223631.65</v>
-      </c>
-      <c r="L61" t="str">
-        <v>Toyota</v>
-      </c>
-      <c r="M61" t="str">
-        <v>Hilux</v>
-      </c>
-      <c r="N61">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="P61" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q61" t="str">
-        <v>P-032KBB</v>
-      </c>
       <c r="R61" t="str">
         <v>No definido</v>
       </c>
@@ -4153,10 +3982,10 @@
         <v>No definido</v>
       </c>
       <c r="T61" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U61">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="W61" t="str">
         <v>null</v>
@@ -4167,19 +3996,19 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>62957</v>
+        <v>63338</v>
       </c>
       <c r="B62">
         <v>2025</v>
       </c>
       <c r="C62" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E62" t="str">
-        <v>Gustavo Adolfo Martinez Villatoro</v>
+        <v>Eddy Estibis Juárez Morales</v>
       </c>
       <c r="F62" t="str">
         <v>Sergio Chavac</v>
@@ -4191,7 +4020,7 @@
         <v>50</v>
       </c>
       <c r="I62" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J62" t="str">
         <v>Abierta</v>
@@ -4209,10 +4038,10 @@
         <v>No definido</v>
       </c>
       <c r="T62" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U62">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W62" t="str">
         <v>null</v>
@@ -4223,19 +4052,19 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62958</v>
+        <v>63339</v>
       </c>
       <c r="B63">
         <v>2025</v>
       </c>
       <c r="C63" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E63" t="str">
-        <v>Karla Jeanneth Rodas Aguilar</v>
+        <v>Anely Francisca De León Juárez</v>
       </c>
       <c r="F63" t="str">
         <v>Sergio Chavac</v>
@@ -4247,7 +4076,7 @@
         <v>50</v>
       </c>
       <c r="I63" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J63" t="str">
         <v>Abierta</v>
@@ -4265,10 +4094,10 @@
         <v>No definido</v>
       </c>
       <c r="T63" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U63">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W63" t="str">
         <v>null</v>
@@ -4279,19 +4108,19 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>62964</v>
+        <v>63344</v>
       </c>
       <c r="B64">
         <v>2025</v>
       </c>
       <c r="C64" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E64" t="str">
-        <v>Gabriel Alejandro Galindo Escalante</v>
+        <v>Katherine Marlene Ramírez Linares</v>
       </c>
       <c r="F64" t="str">
         <v>Sergio Chavac</v>
@@ -4321,10 +4150,10 @@
         <v>No definido</v>
       </c>
       <c r="T64" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U64">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="W64" t="str">
         <v>null</v>
@@ -4335,28 +4164,28 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>62965</v>
+        <v>63345</v>
       </c>
       <c r="B65">
         <v>2025</v>
       </c>
       <c r="C65" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E65" t="str">
-        <v>Christopher Abimael Barillas Quiroa</v>
+        <v>José Guillermo Alvarez Donis</v>
       </c>
       <c r="F65" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G65" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H65">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I65" t="str">
         <v>Agencia</v>
@@ -4365,23 +4194,11 @@
         <v>Abierta</v>
       </c>
       <c r="K65">
-        <v>279279</v>
-      </c>
-      <c r="L65" t="str">
-        <v>Mitsubishi</v>
-      </c>
-      <c r="M65" t="str">
-        <v>L200 GLS MID AT 4WD</v>
-      </c>
-      <c r="N65">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P65" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
       <c r="R65" t="str">
         <v>No definido</v>
       </c>
@@ -4389,10 +4206,10 @@
         <v>No definido</v>
       </c>
       <c r="T65" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U65">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="W65" t="str">
         <v>null</v>
@@ -4403,53 +4220,41 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>62968</v>
+        <v>63347</v>
       </c>
       <c r="B66">
         <v>2025</v>
       </c>
       <c r="C66" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E66" t="str">
-        <v>Fabiola Fernanda Solares Salay De Maeda</v>
+        <v>Pedro Julio García Chacón</v>
       </c>
       <c r="F66" t="str">
-        <v>Daniel Jacobo</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G66" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H66">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I66" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J66" t="str">
         <v>Abierta</v>
       </c>
       <c r="K66">
-        <v>107604.35</v>
-      </c>
-      <c r="L66" t="str">
-        <v>Mazda</v>
-      </c>
-      <c r="M66" t="str">
-        <v>CX-5 GRAND TOURING</v>
-      </c>
-      <c r="N66">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="P66" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q66" t="str">
-        <v>P-004LCY</v>
-      </c>
       <c r="R66" t="str">
         <v>No definido</v>
       </c>
@@ -4457,10 +4262,10 @@
         <v>No definido</v>
       </c>
       <c r="T66" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U66">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="W66" t="str">
         <v>null</v>
@@ -4471,22 +4276,22 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>62973</v>
+        <v>63357</v>
       </c>
       <c r="B67">
         <v>2025</v>
       </c>
       <c r="C67" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E67" t="str">
-        <v>Josue Alberto Merida Del Cid</v>
+        <v>Nelson Geovany Francia Galdamez</v>
       </c>
       <c r="F67" t="str">
-        <v>Sergio Chavac</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G67" t="str">
         <v>Autocompras</v>
@@ -4495,7 +4300,7 @@
         <v>50</v>
       </c>
       <c r="I67" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J67" t="str">
         <v>Abierta</v>
@@ -4513,10 +4318,10 @@
         <v>No definido</v>
       </c>
       <c r="T67" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U67">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="W67" t="str">
         <v>null</v>
@@ -4527,22 +4332,22 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>62977</v>
+        <v>63365</v>
       </c>
       <c r="B68">
         <v>2025</v>
       </c>
       <c r="C68" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E68" t="str">
-        <v>Eugenia Beatriz Barrios Escobar De Milian</v>
+        <v>IRIS PAOLA AYALA VARGAS</v>
       </c>
       <c r="F68" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G68" t="str">
         <v>Autocompras</v>
@@ -4551,7 +4356,7 @@
         <v>50</v>
       </c>
       <c r="I68" t="str">
-        <v>Agencia</v>
+        <v>Facebook</v>
       </c>
       <c r="J68" t="str">
         <v>Abierta</v>
@@ -4569,10 +4374,10 @@
         <v>No definido</v>
       </c>
       <c r="T68" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U68">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="W68" t="str">
         <v>null</v>
@@ -4583,22 +4388,22 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>62982</v>
+        <v>63366</v>
       </c>
       <c r="B69">
         <v>2025</v>
       </c>
       <c r="C69" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E69" t="str">
-        <v>Celeste Aida Lemus Godoy</v>
+        <v>Joselín Mariela Muñoz</v>
       </c>
       <c r="F69" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G69" t="str">
         <v>Autocompras</v>
@@ -4607,7 +4412,7 @@
         <v>50</v>
       </c>
       <c r="I69" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J69" t="str">
         <v>Abierta</v>
@@ -4625,10 +4430,10 @@
         <v>No definido</v>
       </c>
       <c r="T69" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U69">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="W69" t="str">
         <v>null</v>
@@ -4639,19 +4444,19 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>62983</v>
+        <v>63373</v>
       </c>
       <c r="B70">
         <v>2025</v>
       </c>
       <c r="C70" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E70" t="str">
-        <v>Claudia Mishel Lopez Solares De Gonzalez</v>
+        <v>Anyely Adamaris Pérez López De Lux</v>
       </c>
       <c r="F70" t="str">
         <v>Sergio Chavac</v>
@@ -4663,7 +4468,7 @@
         <v>50</v>
       </c>
       <c r="I70" t="str">
-        <v>Predio</v>
+        <v>Agencia</v>
       </c>
       <c r="J70" t="str">
         <v>Abierta</v>
@@ -4681,10 +4486,10 @@
         <v>No definido</v>
       </c>
       <c r="T70" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U70">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="W70" t="str">
         <v>null</v>
@@ -4695,53 +4500,41 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>62986</v>
+        <v>63375</v>
       </c>
       <c r="B71">
         <v>2025</v>
       </c>
       <c r="C71" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E71" t="str">
-        <v>David Gomez Camacho</v>
+        <v>Elvis Morataya</v>
       </c>
       <c r="F71" t="str">
-        <v>Brandon de Leon</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G71" t="str">
         <v>Autocompras</v>
       </c>
       <c r="H71">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I71" t="str">
-        <v>Periodico</v>
+        <v>Recurrente activo</v>
       </c>
       <c r="J71" t="str">
         <v>Abierta</v>
       </c>
       <c r="K71">
-        <v>60196.14</v>
-      </c>
-      <c r="L71" t="str">
-        <v>Mazda</v>
-      </c>
-      <c r="M71" t="str">
-        <v>Mazda 3 sport</v>
-      </c>
-      <c r="N71">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="P71" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q71" t="str">
-        <v>P-586KLG</v>
-      </c>
       <c r="R71" t="str">
         <v>No definido</v>
       </c>
@@ -4749,10 +4542,10 @@
         <v>No definido</v>
       </c>
       <c r="T71" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U71">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="W71" t="str">
         <v>null</v>
@@ -4763,22 +4556,22 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>62987</v>
+        <v>63378</v>
       </c>
       <c r="B72">
         <v>2025</v>
       </c>
       <c r="C72" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E72" t="str">
-        <v>Mario Jacobo Ordoñez Garcia</v>
+        <v>Javier Rigoberto Balcarcel Remon</v>
       </c>
       <c r="F72" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G72" t="str">
         <v>Autocompras</v>
@@ -4787,7 +4580,7 @@
         <v>50</v>
       </c>
       <c r="I72" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J72" t="str">
         <v>Abierta</v>
@@ -4805,10 +4598,10 @@
         <v>No definido</v>
       </c>
       <c r="T72" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U72">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="W72" t="str">
         <v>null</v>
@@ -4819,19 +4612,19 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>62988</v>
+        <v>63382</v>
       </c>
       <c r="B73">
         <v>2025</v>
       </c>
       <c r="C73" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E73" t="str">
-        <v>Noé Alberto Godoy Franco</v>
+        <v>Jose Andres Galvez Vassaux</v>
       </c>
       <c r="F73" t="str">
         <v>Sergio Chavac</v>
@@ -4861,10 +4654,10 @@
         <v>No definido</v>
       </c>
       <c r="T73" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U73">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="W73" t="str">
         <v>null</v>
@@ -4875,22 +4668,22 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>62989</v>
+        <v>63383</v>
       </c>
       <c r="B74">
         <v>2025</v>
       </c>
       <c r="C74" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E74" t="str">
-        <v>Gerson Eliazar Barrios Pérez</v>
+        <v>GILMA ALEXANDRA BERNAL TAQUÉ</v>
       </c>
       <c r="F74" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G74" t="str">
         <v>Autocompras</v>
@@ -4917,10 +4710,10 @@
         <v>No definido</v>
       </c>
       <c r="T74" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U74">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="W74" t="str">
         <v>null</v>
@@ -4931,22 +4724,22 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>62994</v>
+        <v>63389</v>
       </c>
       <c r="B75">
         <v>2025</v>
       </c>
       <c r="C75" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E75" t="str">
-        <v>Allan Josué Aguilar Marroquín</v>
+        <v>ANA LUCÍA GÓMEZ GARCÍA DE GIRÓN</v>
       </c>
       <c r="F75" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G75" t="str">
         <v>Autocompras</v>
@@ -4955,7 +4748,7 @@
         <v>50</v>
       </c>
       <c r="I75" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J75" t="str">
         <v>Abierta</v>
@@ -4973,10 +4766,10 @@
         <v>No definido</v>
       </c>
       <c r="T75" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U75">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W75" t="str">
         <v>null</v>
@@ -4987,22 +4780,22 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>62996</v>
+        <v>63390</v>
       </c>
       <c r="B76">
         <v>2025</v>
       </c>
       <c r="C76" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E76" t="str">
-        <v>Isidro Medardo Gómez Solórzano</v>
+        <v>Celso López López</v>
       </c>
       <c r="F76" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G76" t="str">
         <v>Autocompras</v>
@@ -5011,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="I76" t="str">
-        <v>Recurrente activo</v>
+        <v>Predio</v>
       </c>
       <c r="J76" t="str">
         <v>Abierta</v>
@@ -5029,10 +4822,10 @@
         <v>No definido</v>
       </c>
       <c r="T76" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U76">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="W76" t="str">
         <v>null</v>
@@ -5043,22 +4836,22 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>63002</v>
+        <v>63396</v>
       </c>
       <c r="B77">
         <v>2025</v>
       </c>
       <c r="C77" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E77" t="str">
-        <v>Bryan Alejandro Ariana Juarez</v>
+        <v>Ruth Noemi Elizabeth Menocal Zepeda</v>
       </c>
       <c r="F77" t="str">
-        <v>Brandon de Leon</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G77" t="str">
         <v>Autocompras</v>
@@ -5067,29 +4860,17 @@
         <v>50</v>
       </c>
       <c r="I77" t="str">
-        <v>Facebook</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J77" t="str">
         <v>Abierta</v>
       </c>
       <c r="K77">
-        <v>39529.52</v>
-      </c>
-      <c r="L77" t="str">
-        <v>Kia</v>
-      </c>
-      <c r="M77" t="str">
-        <v>Forte LX</v>
-      </c>
-      <c r="N77">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="P77" t="str">
         <v>No definido</v>
       </c>
-      <c r="Q77" t="str">
-        <v>P-934LHZ</v>
-      </c>
       <c r="R77" t="str">
         <v>No definido</v>
       </c>
@@ -5097,10 +4878,10 @@
         <v>No definido</v>
       </c>
       <c r="T77" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U77">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W77" t="str">
         <v>null</v>
@@ -5111,19 +4892,19 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>63004</v>
+        <v>63398</v>
       </c>
       <c r="B78">
         <v>2025</v>
       </c>
       <c r="C78" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E78" t="str">
-        <v>Jorge Alejandro Castellanos Rizzo</v>
+        <v>David Florian</v>
       </c>
       <c r="F78" t="str">
         <v>Daniel Jacobo</v>
@@ -5135,7 +4916,7 @@
         <v>50</v>
       </c>
       <c r="I78" t="str">
-        <v>Referido</v>
+        <v>No definido</v>
       </c>
       <c r="J78" t="str">
         <v>Abierta</v>
@@ -5144,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="str">
-        <v>Sin capacidad de pago</v>
+        <v>No definido</v>
       </c>
       <c r="R78" t="str">
         <v>No definido</v>
@@ -5153,10 +4934,10 @@
         <v>No definido</v>
       </c>
       <c r="T78" t="str">
-        <v>jul</v>
+        <v>ago</v>
       </c>
       <c r="U78">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W78" t="str">
         <v>null</v>
@@ -5167,22 +4948,22 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>63008</v>
+        <v>63411</v>
       </c>
       <c r="B79">
         <v>2025</v>
       </c>
       <c r="C79" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E79" t="str">
-        <v>Hazel Arlette Alonzo Navas</v>
+        <v>CARLOS RAMIRO DÍAZ DE LEON</v>
       </c>
       <c r="F79" t="str">
-        <v>Sergio Chavac</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G79" t="str">
         <v>Autocompras</v>
@@ -5191,7 +4972,7 @@
         <v>50</v>
       </c>
       <c r="I79" t="str">
-        <v>Recurrente activo</v>
+        <v>Agencia</v>
       </c>
       <c r="J79" t="str">
         <v>Abierta</v>
@@ -5209,10 +4990,10 @@
         <v>No definido</v>
       </c>
       <c r="T79" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U79">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="W79" t="str">
         <v>null</v>
@@ -5223,46 +5004,37 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>63012</v>
+        <v>63414</v>
       </c>
       <c r="B80">
         <v>2025</v>
       </c>
       <c r="C80" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E80" t="str">
-        <v>Juan Manuel Briones Mendez</v>
+        <v>Milton Ibarra</v>
       </c>
       <c r="F80" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Jonathan Buch</v>
       </c>
       <c r="G80" t="str">
-        <v>Autocompras</v>
+        <v>Sobre Vehículos</v>
       </c>
       <c r="H80">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I80" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J80" t="str">
         <v>Abierta</v>
       </c>
       <c r="K80">
-        <v>166979.91</v>
-      </c>
-      <c r="L80" t="str">
-        <v>JAC</v>
-      </c>
-      <c r="M80" t="str">
-        <v>HFC1037D3KST T8</v>
-      </c>
-      <c r="N80">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="P80" t="str">
         <v>No definido</v>
@@ -5274,10 +5046,10 @@
         <v>No definido</v>
       </c>
       <c r="T80" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U80">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="W80" t="str">
         <v>null</v>
@@ -5288,22 +5060,22 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>63015</v>
+        <v>63416</v>
       </c>
       <c r="B81">
         <v>2025</v>
       </c>
       <c r="C81" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>Francisco Javier Arias Gonzalez</v>
+        <v>Switchers Agency S.A.</v>
       </c>
       <c r="F81" t="str">
-        <v>Brandon de Leon</v>
+        <v>Jonathan Buch</v>
       </c>
       <c r="G81" t="str">
         <v>Autocompras</v>
@@ -5312,28 +5084,16 @@
         <v>50</v>
       </c>
       <c r="I81" t="str">
-        <v>Predio</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J81" t="str">
         <v>Abierta</v>
       </c>
       <c r="K81">
-        <v>71687.78</v>
-      </c>
-      <c r="L81" t="str">
-        <v>Hyundai</v>
-      </c>
-      <c r="M81" t="str">
-        <v>Veloster Turbo</v>
-      </c>
-      <c r="N81">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="P81" t="str">
-        <v>Sin comunicación</v>
-      </c>
-      <c r="Q81" t="str">
-        <v>P-239KVM</v>
+        <v>No definido</v>
       </c>
       <c r="R81" t="str">
         <v>No definido</v>
@@ -5342,10 +5102,10 @@
         <v>No definido</v>
       </c>
       <c r="T81" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U81">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="W81" t="str">
         <v>null</v>
@@ -5356,22 +5116,22 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>63021</v>
+        <v>63417</v>
       </c>
       <c r="B82">
         <v>2025</v>
       </c>
       <c r="C82" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E82" t="str">
-        <v>Monica Gabriela Guzman Barrillas</v>
+        <v>Emigdio Adalberto Gomez Gomez</v>
       </c>
       <c r="F82" t="str">
-        <v>Sergio Chavac</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G82" t="str">
         <v>Autocompras</v>
@@ -5398,10 +5158,10 @@
         <v>No definido</v>
       </c>
       <c r="T82" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U82">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="W82" t="str">
         <v>null</v>
@@ -5412,22 +5172,22 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>63022</v>
+        <v>63421</v>
       </c>
       <c r="B83">
         <v>2025</v>
       </c>
       <c r="C83" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E83" t="str">
-        <v>Carlos Adolfo Bances Corado</v>
+        <v>Byron Valle</v>
       </c>
       <c r="F83" t="str">
-        <v>Sergio Chavac</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G83" t="str">
         <v>Autocompras</v>
@@ -5436,7 +5196,7 @@
         <v>50</v>
       </c>
       <c r="I83" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J83" t="str">
         <v>Abierta</v>
@@ -5454,10 +5214,10 @@
         <v>No definido</v>
       </c>
       <c r="T83" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U83">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="W83" t="str">
         <v>null</v>
@@ -5468,22 +5228,22 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>63029</v>
+        <v>63424</v>
       </c>
       <c r="B84">
         <v>2025</v>
       </c>
       <c r="C84" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E84" t="str">
-        <v>Kiara Daniela Franco Matías de Solares</v>
+        <v>Hugo Eduardo Robledo Monroy</v>
       </c>
       <c r="F84" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G84" t="str">
         <v>Autocompras</v>
@@ -5492,7 +5252,7 @@
         <v>50</v>
       </c>
       <c r="I84" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J84" t="str">
         <v>Abierta</v>
@@ -5510,10 +5270,10 @@
         <v>No definido</v>
       </c>
       <c r="T84" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U84">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="W84" t="str">
         <v>null</v>
@@ -5524,22 +5284,22 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>63031</v>
+        <v>63433</v>
       </c>
       <c r="B85">
         <v>2025</v>
       </c>
       <c r="C85" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E85" t="str">
-        <v>Jhonny Rueda</v>
+        <v>Erick Castillo</v>
       </c>
       <c r="F85" t="str">
-        <v>Brandon de Leon</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G85" t="str">
         <v>Autocompras</v>
@@ -5548,7 +5308,7 @@
         <v>50</v>
       </c>
       <c r="I85" t="str">
-        <v>Plataforma-Google</v>
+        <v>Google</v>
       </c>
       <c r="J85" t="str">
         <v>Abierta</v>
@@ -5566,10 +5326,10 @@
         <v>No definido</v>
       </c>
       <c r="T85" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U85">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="W85" t="str">
         <v>null</v>
@@ -5580,22 +5340,22 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>63035</v>
+        <v>63436</v>
       </c>
       <c r="B86">
         <v>2025</v>
       </c>
       <c r="C86" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E86" t="str">
-        <v>Kevin Leví Gómez Castillo</v>
+        <v>KATHERINE NICOLE COLMENARES VELIZ</v>
       </c>
       <c r="F86" t="str">
-        <v>Brandon de Leon</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G86" t="str">
         <v>Autocompras</v>
@@ -5604,7 +5364,7 @@
         <v>50</v>
       </c>
       <c r="I86" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J86" t="str">
         <v>Abierta</v>
@@ -5622,10 +5382,10 @@
         <v>No definido</v>
       </c>
       <c r="T86" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U86">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="W86" t="str">
         <v>null</v>
@@ -5636,19 +5396,19 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>63046</v>
+        <v>63439</v>
       </c>
       <c r="B87">
         <v>2025</v>
       </c>
       <c r="C87" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E87" t="str">
-        <v>Cesar Rene Pérez Recinos</v>
+        <v>Milvia Yolany Sinay Oliva</v>
       </c>
       <c r="F87" t="str">
         <v>Sergio Chavac</v>
@@ -5660,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="I87" t="str">
-        <v>Predio</v>
+        <v>Agencia</v>
       </c>
       <c r="J87" t="str">
         <v>Abierta</v>
@@ -5678,10 +5438,10 @@
         <v>No definido</v>
       </c>
       <c r="T87" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U87">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="W87" t="str">
         <v>null</v>
@@ -5692,22 +5452,22 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>63047</v>
+        <v>63444</v>
       </c>
       <c r="B88">
         <v>2025</v>
       </c>
       <c r="C88" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D88">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E88" t="str">
-        <v>David García</v>
+        <v>Rigoberto Roldan</v>
       </c>
       <c r="F88" t="str">
-        <v>Brandon de Leon</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G88" t="str">
         <v>Autocompras</v>
@@ -5716,7 +5476,7 @@
         <v>50</v>
       </c>
       <c r="I88" t="str">
-        <v>Plataforma-Google</v>
+        <v>Agencia</v>
       </c>
       <c r="J88" t="str">
         <v>Abierta</v>
@@ -5734,10 +5494,10 @@
         <v>No definido</v>
       </c>
       <c r="T88" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U88">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="W88" t="str">
         <v>null</v>
@@ -5748,22 +5508,22 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>63048</v>
+        <v>63445</v>
       </c>
       <c r="B89">
         <v>2025</v>
       </c>
       <c r="C89" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D89">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E89" t="str">
-        <v>Ana Elizabeth Vicente Ramirez</v>
+        <v>Carlos Mansilla</v>
       </c>
       <c r="F89" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G89" t="str">
         <v>Autocompras</v>
@@ -5772,7 +5532,7 @@
         <v>50</v>
       </c>
       <c r="I89" t="str">
-        <v>Predio</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J89" t="str">
         <v>Abierta</v>
@@ -5790,10 +5550,10 @@
         <v>No definido</v>
       </c>
       <c r="T89" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U89">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="W89" t="str">
         <v>null</v>
@@ -5804,19 +5564,19 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>63049</v>
+        <v>63451</v>
       </c>
       <c r="B90">
         <v>2025</v>
       </c>
       <c r="C90" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E90" t="str">
-        <v>Ivan Estuardo Echeverria Catalán</v>
+        <v>José David Bácama Salazar</v>
       </c>
       <c r="F90" t="str">
         <v>Sergio Chavac</v>
@@ -5828,7 +5588,7 @@
         <v>50</v>
       </c>
       <c r="I90" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J90" t="str">
         <v>Abierta</v>
@@ -5846,10 +5606,10 @@
         <v>No definido</v>
       </c>
       <c r="T90" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U90">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="W90" t="str">
         <v>null</v>
@@ -5860,19 +5620,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>63050</v>
+        <v>63452</v>
       </c>
       <c r="B91">
         <v>2025</v>
       </c>
       <c r="C91" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D91">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E91" t="str">
-        <v>Marco Antonio De Paz Rueda</v>
+        <v>Dalmy María Mercedes Pérez López de Trujillo</v>
       </c>
       <c r="F91" t="str">
         <v>Sergio Chavac</v>
@@ -5884,7 +5644,7 @@
         <v>50</v>
       </c>
       <c r="I91" t="str">
-        <v>Agencia</v>
+        <v>Predio</v>
       </c>
       <c r="J91" t="str">
         <v>Abierta</v>
@@ -5902,10 +5662,10 @@
         <v>No definido</v>
       </c>
       <c r="T91" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U91">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="W91" t="str">
         <v>null</v>
@@ -5916,22 +5676,22 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>63051</v>
+        <v>63454</v>
       </c>
       <c r="B92">
         <v>2025</v>
       </c>
       <c r="C92" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D92">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E92" t="str">
-        <v>Pablo Andree Dardón Arbizú</v>
+        <v>MARIA EUGENIA VICTORIA JUÁREZ SOTO</v>
       </c>
       <c r="F92" t="str">
-        <v>Brandon de Leon</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G92" t="str">
         <v>Autocompras</v>
@@ -5940,7 +5700,7 @@
         <v>50</v>
       </c>
       <c r="I92" t="str">
-        <v>Recurrente activo</v>
+        <v>Referido</v>
       </c>
       <c r="J92" t="str">
         <v>Abierta</v>
@@ -5958,10 +5718,10 @@
         <v>No definido</v>
       </c>
       <c r="T92" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U92">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="W92" t="str">
         <v>null</v>
@@ -5972,19 +5732,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>63061</v>
+        <v>63455</v>
       </c>
       <c r="B93">
         <v>2025</v>
       </c>
       <c r="C93" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E93" t="str">
-        <v>Jorge Mario Jerónimo Ramos</v>
+        <v>Lucío Edgar Antonio Ramazzini Ramirez</v>
       </c>
       <c r="F93" t="str">
         <v>Sergio Chavac</v>
@@ -5996,7 +5756,7 @@
         <v>50</v>
       </c>
       <c r="I93" t="str">
-        <v>Predio</v>
+        <v>Agencia</v>
       </c>
       <c r="J93" t="str">
         <v>Abierta</v>
@@ -6014,10 +5774,10 @@
         <v>No definido</v>
       </c>
       <c r="T93" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U93">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W93" t="str">
         <v>null</v>
@@ -6028,22 +5788,22 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>63062</v>
+        <v>63457</v>
       </c>
       <c r="B94">
         <v>2025</v>
       </c>
       <c r="C94" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E94" t="str">
-        <v>Werner Paolo Borrayo Contreras</v>
+        <v>ALFREDO ALEJANDRO ROSALES MEDINA</v>
       </c>
       <c r="F94" t="str">
-        <v>Sergio Chavac</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G94" t="str">
         <v>Autocompras</v>
@@ -6052,7 +5812,7 @@
         <v>50</v>
       </c>
       <c r="I94" t="str">
-        <v>Recurrente activo</v>
+        <v>Agencia</v>
       </c>
       <c r="J94" t="str">
         <v>Abierta</v>
@@ -6070,10 +5830,10 @@
         <v>No definido</v>
       </c>
       <c r="T94" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U94">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W94" t="str">
         <v>null</v>
@@ -6084,22 +5844,22 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>63063</v>
+        <v>63461</v>
       </c>
       <c r="B95">
         <v>2025</v>
       </c>
       <c r="C95" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D95">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E95" t="str">
-        <v>Gerusbaal Gomez Y Gomez</v>
+        <v>CRISTIAN ALEXANDER MORATAYA RUIZ</v>
       </c>
       <c r="F95" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G95" t="str">
         <v>Autocompras</v>
@@ -6108,7 +5868,7 @@
         <v>50</v>
       </c>
       <c r="I95" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J95" t="str">
         <v>Abierta</v>
@@ -6126,10 +5886,10 @@
         <v>No definido</v>
       </c>
       <c r="T95" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U95">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W95" t="str">
         <v>null</v>
@@ -6140,22 +5900,22 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>63067</v>
+        <v>63463</v>
       </c>
       <c r="B96">
         <v>2025</v>
       </c>
       <c r="C96" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D96">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E96" t="str">
-        <v>Isaias Crúz Díaz</v>
+        <v>BRYAN MIGUEL GONZÁLEZ SAYES</v>
       </c>
       <c r="F96" t="str">
-        <v>Sergio Chavac</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G96" t="str">
         <v>Autocompras</v>
@@ -6164,7 +5924,7 @@
         <v>50</v>
       </c>
       <c r="I96" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J96" t="str">
         <v>Abierta</v>
@@ -6182,10 +5942,10 @@
         <v>No definido</v>
       </c>
       <c r="T96" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U96">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W96" t="str">
         <v>null</v>
@@ -6196,19 +5956,19 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>63069</v>
+        <v>63465</v>
       </c>
       <c r="B97">
         <v>2025</v>
       </c>
       <c r="C97" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D97">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E97" t="str">
-        <v>Cristian Yonatan Reynosa Villalta</v>
+        <v>Kenny Urrutia</v>
       </c>
       <c r="F97" t="str">
         <v>Francisco Chinchilla</v>
@@ -6238,10 +5998,10 @@
         <v>No definido</v>
       </c>
       <c r="T97" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U97">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="W97" t="str">
         <v>null</v>
@@ -6252,22 +6012,22 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>63072</v>
+        <v>63469</v>
       </c>
       <c r="B98">
         <v>2025</v>
       </c>
       <c r="C98" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E98" t="str">
-        <v>Daniella Paulina Gallusser Illescas</v>
+        <v>TENET GROUP TECHNOLOGY SOCIEDAD ANONIMA</v>
       </c>
       <c r="F98" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G98" t="str">
         <v>Autocompras</v>
@@ -6276,7 +6036,7 @@
         <v>50</v>
       </c>
       <c r="I98" t="str">
-        <v>Plataforma-Google</v>
+        <v>Referido</v>
       </c>
       <c r="J98" t="str">
         <v>Abierta</v>
@@ -6294,10 +6054,10 @@
         <v>No definido</v>
       </c>
       <c r="T98" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U98">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="W98" t="str">
         <v>null</v>
@@ -6308,22 +6068,22 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>63075</v>
+        <v>63470</v>
       </c>
       <c r="B99">
         <v>2025</v>
       </c>
       <c r="C99" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D99">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E99" t="str">
-        <v>Banny Stefany Cabrera Herrera</v>
+        <v>Freddy Fernando Figueroa Román</v>
       </c>
       <c r="F99" t="str">
-        <v>Brandon de Leon</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G99" t="str">
         <v>Autocompras</v>
@@ -6332,7 +6092,7 @@
         <v>50</v>
       </c>
       <c r="I99" t="str">
-        <v>Referido</v>
+        <v>Predio</v>
       </c>
       <c r="J99" t="str">
         <v>Abierta</v>
@@ -6350,10 +6110,10 @@
         <v>No definido</v>
       </c>
       <c r="T99" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U99">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="W99" t="str">
         <v>null</v>
@@ -6364,22 +6124,22 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>63078</v>
+        <v>63471</v>
       </c>
       <c r="B100">
         <v>2025</v>
       </c>
       <c r="C100" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D100">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E100" t="str">
-        <v>Aliz Gabriela Vásquez Castros De Arriola</v>
+        <v>Jonathan Rene Sajche Valenzuela</v>
       </c>
       <c r="F100" t="str">
-        <v>Sergio Chavac</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G100" t="str">
         <v>Autocompras</v>
@@ -6406,10 +6166,10 @@
         <v>No definido</v>
       </c>
       <c r="T100" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U100">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W100" t="str">
         <v>null</v>
@@ -6420,22 +6180,22 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>63080</v>
+        <v>63473</v>
       </c>
       <c r="B101">
         <v>2025</v>
       </c>
       <c r="C101" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D101">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E101" t="str">
-        <v>Angela Valentina Figueroa Navarro</v>
+        <v>KEENY MIGUELANGEL MARQUEZ</v>
       </c>
       <c r="F101" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G101" t="str">
         <v>Autocompras</v>
@@ -6444,7 +6204,7 @@
         <v>50</v>
       </c>
       <c r="I101" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J101" t="str">
         <v>Abierta</v>
@@ -6462,10 +6222,10 @@
         <v>No definido</v>
       </c>
       <c r="T101" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U101">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W101" t="str">
         <v>null</v>
@@ -6476,19 +6236,19 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>63098</v>
+        <v>63474</v>
       </c>
       <c r="B102">
         <v>2025</v>
       </c>
       <c r="C102" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E102" t="str">
-        <v>Diego Paz</v>
+        <v>OSCAR JOSE CABRERA HERNANDEZ</v>
       </c>
       <c r="F102" t="str">
         <v>Francisco Chinchilla</v>
@@ -6500,7 +6260,7 @@
         <v>50</v>
       </c>
       <c r="I102" t="str">
-        <v>Facebook</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J102" t="str">
         <v>Abierta</v>
@@ -6518,10 +6278,10 @@
         <v>No definido</v>
       </c>
       <c r="T102" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U102">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="W102" t="str">
         <v>null</v>
@@ -6532,22 +6292,22 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>63100</v>
+        <v>63486</v>
       </c>
       <c r="B103">
         <v>2025</v>
       </c>
       <c r="C103" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D103">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E103" t="str">
-        <v>Erwing Eduardo Leal Posadas</v>
+        <v>KERLIN ESTELA LÓPEZ</v>
       </c>
       <c r="F103" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G103" t="str">
         <v>Autocompras</v>
@@ -6556,7 +6316,7 @@
         <v>50</v>
       </c>
       <c r="I103" t="str">
-        <v>Facebook</v>
+        <v>Agencia</v>
       </c>
       <c r="J103" t="str">
         <v>Abierta</v>
@@ -6574,10 +6334,10 @@
         <v>No definido</v>
       </c>
       <c r="T103" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U103">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W103" t="str">
         <v>null</v>
@@ -6588,22 +6348,22 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>63104</v>
+        <v>63488</v>
       </c>
       <c r="B104">
         <v>2025</v>
       </c>
       <c r="C104" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D104">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E104" t="str">
-        <v>Wellington Josue Morales Mogollón</v>
+        <v>José Manuel De Jesús Martinez Cuque</v>
       </c>
       <c r="F104" t="str">
-        <v>Sergio Chavac</v>
+        <v>Marjory Figueroa</v>
       </c>
       <c r="G104" t="str">
         <v>Autocompras</v>
@@ -6612,7 +6372,7 @@
         <v>50</v>
       </c>
       <c r="I104" t="str">
-        <v>Predio</v>
+        <v>Agencia</v>
       </c>
       <c r="J104" t="str">
         <v>Abierta</v>
@@ -6630,10 +6390,10 @@
         <v>No definido</v>
       </c>
       <c r="T104" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U104">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W104" t="str">
         <v>null</v>
@@ -6644,19 +6404,19 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>63106</v>
+        <v>63489</v>
       </c>
       <c r="B105">
         <v>2025</v>
       </c>
       <c r="C105" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D105">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E105" t="str">
-        <v>Gersón Geovany Gómez Contreras</v>
+        <v>Cynthia Beatriz Vásquez Monzón</v>
       </c>
       <c r="F105" t="str">
         <v>Sergio Chavac</v>
@@ -6668,7 +6428,7 @@
         <v>50</v>
       </c>
       <c r="I105" t="str">
-        <v>Referido</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J105" t="str">
         <v>Abierta</v>
@@ -6686,10 +6446,10 @@
         <v>No definido</v>
       </c>
       <c r="T105" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U105">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W105" t="str">
         <v>null</v>
@@ -6700,22 +6460,22 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>63108</v>
+        <v>63490</v>
       </c>
       <c r="B106">
         <v>2025</v>
       </c>
       <c r="C106" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E106" t="str">
-        <v>Manfred Batres</v>
+        <v>Jenifer Mishell Lopez Marroquin</v>
       </c>
       <c r="F106" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G106" t="str">
         <v>Autocompras</v>
@@ -6724,7 +6484,7 @@
         <v>50</v>
       </c>
       <c r="I106" t="str">
-        <v>Facebook</v>
+        <v>Predio</v>
       </c>
       <c r="J106" t="str">
         <v>Abierta</v>
@@ -6742,10 +6502,10 @@
         <v>No definido</v>
       </c>
       <c r="T106" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U106">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W106" t="str">
         <v>null</v>
@@ -6756,22 +6516,22 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>63111</v>
+        <v>63492</v>
       </c>
       <c r="B107">
         <v>2025</v>
       </c>
       <c r="C107" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E107" t="str">
-        <v>Joana Maria Ruano González</v>
+        <v>Carlos Osberto Mendizabal Oliva</v>
       </c>
       <c r="F107" t="str">
-        <v>Kevin Hernández</v>
+        <v>Marjory Figueroa</v>
       </c>
       <c r="G107" t="str">
         <v>Autocompras</v>
@@ -6780,7 +6540,7 @@
         <v>50</v>
       </c>
       <c r="I107" t="str">
-        <v>Agencia</v>
+        <v>Referido</v>
       </c>
       <c r="J107" t="str">
         <v>Abierta</v>
@@ -6798,10 +6558,10 @@
         <v>No definido</v>
       </c>
       <c r="T107" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U107">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W107" t="str">
         <v>null</v>
@@ -6812,22 +6572,22 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>63112</v>
+        <v>63493</v>
       </c>
       <c r="B108">
         <v>2025</v>
       </c>
       <c r="C108" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D108">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E108" t="str">
-        <v>Elvis Antonio García Calderón</v>
+        <v>Alan Josue Vicente Pirir</v>
       </c>
       <c r="F108" t="str">
-        <v>Marjory Figueroa</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G108" t="str">
         <v>Autocompras</v>
@@ -6836,7 +6596,7 @@
         <v>50</v>
       </c>
       <c r="I108" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J108" t="str">
         <v>Abierta</v>
@@ -6854,10 +6614,10 @@
         <v>No definido</v>
       </c>
       <c r="T108" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U108">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W108" t="str">
         <v>null</v>
@@ -6868,22 +6628,22 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>63113</v>
+        <v>63494</v>
       </c>
       <c r="B109">
         <v>2025</v>
       </c>
       <c r="C109" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E109" t="str">
-        <v>Wilder Alexsander Sian Arrecis</v>
+        <v>WILSON GEOVANY ALONZO GARCIA</v>
       </c>
       <c r="F109" t="str">
-        <v>Kevin Hernández</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G109" t="str">
         <v>Autocompras</v>
@@ -6892,7 +6652,7 @@
         <v>50</v>
       </c>
       <c r="I109" t="str">
-        <v>Agencia</v>
+        <v>Plataforma-Google</v>
       </c>
       <c r="J109" t="str">
         <v>Abierta</v>
@@ -6910,10 +6670,10 @@
         <v>No definido</v>
       </c>
       <c r="T109" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U109">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W109" t="str">
         <v>null</v>
@@ -6924,22 +6684,22 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>63115</v>
+        <v>63495</v>
       </c>
       <c r="B110">
         <v>2025</v>
       </c>
       <c r="C110" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D110">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E110" t="str">
-        <v>Jorge Luis Toledo zepeda</v>
+        <v>ENRIQUE EDGAR DANIEL MURGA QUIÑONEZ</v>
       </c>
       <c r="F110" t="str">
-        <v>Sergio Chavac</v>
+        <v>Daniel Jacobo</v>
       </c>
       <c r="G110" t="str">
         <v>Autocompras</v>
@@ -6948,7 +6708,7 @@
         <v>50</v>
       </c>
       <c r="I110" t="str">
-        <v>Plataforma-Google</v>
+        <v>Referido</v>
       </c>
       <c r="J110" t="str">
         <v>Abierta</v>
@@ -6966,10 +6726,10 @@
         <v>No definido</v>
       </c>
       <c r="T110" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U110">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W110" t="str">
         <v>null</v>
@@ -6980,19 +6740,19 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>63116</v>
+        <v>63496</v>
       </c>
       <c r="B111">
         <v>2025</v>
       </c>
       <c r="C111" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D111">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E111" t="str">
-        <v>Wellington Josue Morales Mogollón</v>
+        <v>MIREYA OLIVA LOPEZ DE ROSALES</v>
       </c>
       <c r="F111" t="str">
         <v>Francisco Chinchilla</v>
@@ -7004,7 +6764,7 @@
         <v>50</v>
       </c>
       <c r="I111" t="str">
-        <v>Plataforma-Google</v>
+        <v>Referido</v>
       </c>
       <c r="J111" t="str">
         <v>Abierta</v>
@@ -7022,10 +6782,10 @@
         <v>No definido</v>
       </c>
       <c r="T111" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U111">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W111" t="str">
         <v>null</v>
@@ -7036,31 +6796,31 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>63118</v>
+        <v>63502</v>
       </c>
       <c r="B112">
         <v>2025</v>
       </c>
       <c r="C112" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D112">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E112" t="str">
-        <v>Alan de Jesús Espinoza Donis</v>
+        <v>Lesther Mauricio Rosales Mendez</v>
       </c>
       <c r="F112" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Brandon de Leon</v>
       </c>
       <c r="G112" t="str">
-        <v>Sobre Vehículos</v>
+        <v>Autocompras</v>
       </c>
       <c r="H112">
         <v>50</v>
       </c>
       <c r="I112" t="str">
-        <v>Plataforma-Google</v>
+        <v>Facebook</v>
       </c>
       <c r="J112" t="str">
         <v>Abierta</v>
@@ -7078,10 +6838,10 @@
         <v>No definido</v>
       </c>
       <c r="T112" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U112">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="W112" t="str">
         <v>null</v>
@@ -7092,22 +6852,22 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>63123</v>
+        <v>63503</v>
       </c>
       <c r="B113">
         <v>2025</v>
       </c>
       <c r="C113" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D113">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E113" t="str">
-        <v>Ruby Elizabeth Osoy Juárez</v>
+        <v>Jeferson Yoc</v>
       </c>
       <c r="F113" t="str">
-        <v>Brandon de Leon</v>
+        <v>Francisco Chinchilla</v>
       </c>
       <c r="G113" t="str">
         <v>Autocompras</v>
@@ -7134,10 +6894,10 @@
         <v>No definido</v>
       </c>
       <c r="T113" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U113">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="W113" t="str">
         <v>null</v>
@@ -7148,22 +6908,22 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>63127</v>
+        <v>63507</v>
       </c>
       <c r="B114">
         <v>2025</v>
       </c>
       <c r="C114" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D114">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E114" t="str">
-        <v>LESTER IVAN SAMAYOA GONZALEZ</v>
+        <v>José Fernando Hidalgo De León</v>
       </c>
       <c r="F114" t="str">
-        <v>Kevin Hernández</v>
+        <v>Sergio Chavac</v>
       </c>
       <c r="G114" t="str">
         <v>Autocompras</v>
@@ -7172,7 +6932,7 @@
         <v>50</v>
       </c>
       <c r="I114" t="str">
-        <v>Plataforma-Google</v>
+        <v>Agencia</v>
       </c>
       <c r="J114" t="str">
         <v>Abierta</v>
@@ -7190,10 +6950,10 @@
         <v>No definido</v>
       </c>
       <c r="T114" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U114">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="W114" t="str">
         <v>null</v>
@@ -7204,22 +6964,22 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>63132</v>
+        <v>63508</v>
       </c>
       <c r="B115">
         <v>2025</v>
       </c>
       <c r="C115" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="D115">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E115" t="str">
-        <v>Laura Yessenia cuevas yol</v>
+        <v>Francisco Javier Valenzuela Valdez</v>
       </c>
       <c r="F115" t="str">
-        <v>Francisco Chinchilla</v>
+        <v>Kevin Hernández</v>
       </c>
       <c r="G115" t="str">
         <v>Autocompras</v>
@@ -7228,7 +6988,7 @@
         <v>50</v>
       </c>
       <c r="I115" t="str">
-        <v>Plataforma-Google</v>
+        <v>Predio</v>
       </c>
       <c r="J115" t="str">
         <v>Abierta</v>
@@ -7246,10 +7006,10 @@
         <v>No definido</v>
       </c>
       <c r="T115" t="str">
-        <v>jul</v>
+        <v>sep</v>
       </c>
       <c r="U115">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="W115" t="str">
         <v>null</v>
@@ -7259,2595 +7019,19 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116">
-        <v>63135</v>
-      </c>
-      <c r="B116">
-        <v>2025</v>
-      </c>
-      <c r="C116" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" t="str">
-        <v>Wendy Pamela Pisqui Gómez</v>
-      </c>
-      <c r="F116" t="str">
-        <v>Marjory Figueroa</v>
-      </c>
-      <c r="G116" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H116">
-        <v>50</v>
-      </c>
-      <c r="I116" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J116" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="P116" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R116" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S116" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T116" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U116">
-        <v>1</v>
-      </c>
-      <c r="W116" t="str">
-        <v>null</v>
+      <c r="A116" t="str">
+        <v>Totals</v>
       </c>
       <c r="X116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>63138</v>
-      </c>
-      <c r="B117">
-        <v>2025</v>
-      </c>
-      <c r="C117" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" t="str">
-        <v>YESENIA SALOME PINEDA RAMIREZ</v>
-      </c>
-      <c r="F117" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G117" t="str">
-        <v>Sobre Vehículos</v>
-      </c>
-      <c r="H117">
-        <v>50</v>
-      </c>
-      <c r="I117" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J117" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="P117" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R117" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S117" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T117" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U117">
-        <v>1</v>
-      </c>
-      <c r="W117" t="str">
-        <v>null</v>
-      </c>
-      <c r="X117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>63139</v>
-      </c>
-      <c r="B118">
-        <v>2025</v>
-      </c>
-      <c r="C118" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="str">
-        <v>Noelia Gregoria Monzon villatoro</v>
-      </c>
-      <c r="F118" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G118" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H118">
-        <v>50</v>
-      </c>
-      <c r="I118" t="str">
-        <v>Facebook</v>
-      </c>
-      <c r="J118" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R118" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S118" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T118" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U118">
-        <v>1</v>
-      </c>
-      <c r="W118" t="str">
-        <v>null</v>
-      </c>
-      <c r="X118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>63140</v>
-      </c>
-      <c r="B119">
-        <v>2025</v>
-      </c>
-      <c r="C119" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-      <c r="E119" t="str">
-        <v>Gerson José Alvarado tzul</v>
-      </c>
-      <c r="F119" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G119" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H119">
-        <v>50</v>
-      </c>
-      <c r="I119" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J119" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="P119" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R119" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S119" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T119" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="W119" t="str">
-        <v>null</v>
-      </c>
-      <c r="X119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>63145</v>
-      </c>
-      <c r="B120">
-        <v>2025</v>
-      </c>
-      <c r="C120" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120" t="str">
-        <v>José diego Vasquez ralda</v>
-      </c>
-      <c r="F120" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G120" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H120">
-        <v>50</v>
-      </c>
-      <c r="I120" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J120" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="P120" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R120" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S120" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T120" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-      <c r="W120" t="str">
-        <v>null</v>
-      </c>
-      <c r="X120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>63153</v>
-      </c>
-      <c r="B121">
-        <v>2025</v>
-      </c>
-      <c r="C121" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-      <c r="E121" t="str">
-        <v>Javier Aroldo Jiménez Girón</v>
-      </c>
-      <c r="F121" t="str">
-        <v>Daniel Jacobo</v>
-      </c>
-      <c r="G121" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H121">
-        <v>75</v>
-      </c>
-      <c r="I121" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J121" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="P121" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R121" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S121" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T121" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U121">
-        <v>4</v>
-      </c>
-      <c r="W121" t="str">
-        <v>null</v>
-      </c>
-      <c r="X121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>63154</v>
-      </c>
-      <c r="B122">
-        <v>2025</v>
-      </c>
-      <c r="C122" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D122">
-        <v>4</v>
-      </c>
-      <c r="E122" t="str">
-        <v>Reina Aracely Galicia</v>
-      </c>
-      <c r="F122" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G122" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H122">
-        <v>50</v>
-      </c>
-      <c r="I122" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J122" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="P122" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R122" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S122" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T122" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U122">
-        <v>4</v>
-      </c>
-      <c r="W122" t="str">
-        <v>null</v>
-      </c>
-      <c r="X122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>63155</v>
-      </c>
-      <c r="B123">
-        <v>2025</v>
-      </c>
-      <c r="C123" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D123">
-        <v>4</v>
-      </c>
-      <c r="E123" t="str">
-        <v>Catarina Gloria Nicolás Marrín</v>
-      </c>
-      <c r="F123" t="str">
-        <v>Daniel Jacobo</v>
-      </c>
-      <c r="G123" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H123">
-        <v>50</v>
-      </c>
-      <c r="I123" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J123" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="P123" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R123" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S123" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T123" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U123">
-        <v>4</v>
-      </c>
-      <c r="W123" t="str">
-        <v>null</v>
-      </c>
-      <c r="X123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>63156</v>
-      </c>
-      <c r="B124">
-        <v>2025</v>
-      </c>
-      <c r="C124" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-      <c r="E124" t="str">
-        <v>Brian Manuel Mancilla Marín</v>
-      </c>
-      <c r="F124" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G124" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H124">
-        <v>50</v>
-      </c>
-      <c r="I124" t="str">
-        <v>Agencia</v>
-      </c>
-      <c r="J124" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="P124" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R124" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S124" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T124" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U124">
-        <v>4</v>
-      </c>
-      <c r="W124" t="str">
-        <v>null</v>
-      </c>
-      <c r="X124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>63157</v>
-      </c>
-      <c r="B125">
-        <v>2025</v>
-      </c>
-      <c r="C125" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-      <c r="E125" t="str">
-        <v>Rudi Adrian Pirir Orozco</v>
-      </c>
-      <c r="F125" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G125" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H125">
-        <v>50</v>
-      </c>
-      <c r="I125" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J125" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="P125" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R125" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S125" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T125" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U125">
-        <v>4</v>
-      </c>
-      <c r="W125" t="str">
-        <v>null</v>
-      </c>
-      <c r="X125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>63158</v>
-      </c>
-      <c r="B126">
-        <v>2025</v>
-      </c>
-      <c r="C126" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D126">
-        <v>4</v>
-      </c>
-      <c r="E126" t="str">
-        <v>Mario Alejandro Palacios Pérez</v>
-      </c>
-      <c r="F126" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G126" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H126">
-        <v>50</v>
-      </c>
-      <c r="I126" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J126" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="P126" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R126" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S126" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T126" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U126">
-        <v>4</v>
-      </c>
-      <c r="W126" t="str">
-        <v>null</v>
-      </c>
-      <c r="X126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>63159</v>
-      </c>
-      <c r="B127">
-        <v>2025</v>
-      </c>
-      <c r="C127" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D127">
-        <v>4</v>
-      </c>
-      <c r="E127" t="str">
-        <v>Marlen Yadira Orellana Arévalo De García</v>
-      </c>
-      <c r="F127" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G127" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H127">
-        <v>50</v>
-      </c>
-      <c r="I127" t="str">
-        <v>Agencia</v>
-      </c>
-      <c r="J127" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="P127" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R127" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S127" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T127" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U127">
-        <v>4</v>
-      </c>
-      <c r="W127" t="str">
-        <v>null</v>
-      </c>
-      <c r="X127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>63162</v>
-      </c>
-      <c r="B128">
-        <v>2025</v>
-      </c>
-      <c r="C128" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D128">
-        <v>4</v>
-      </c>
-      <c r="E128" t="str">
-        <v>ANA VIRGINIA PEREZ REYNOSA</v>
-      </c>
-      <c r="F128" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G128" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H128">
-        <v>50</v>
-      </c>
-      <c r="I128" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J128" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="P128" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R128" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S128" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T128" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U128">
-        <v>4</v>
-      </c>
-      <c r="W128" t="str">
-        <v>null</v>
-      </c>
-      <c r="X128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>63163</v>
-      </c>
-      <c r="B129">
-        <v>2025</v>
-      </c>
-      <c r="C129" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
-      <c r="E129" t="str">
-        <v>Maria Fernanda Orellana Barrera</v>
-      </c>
-      <c r="F129" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G129" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H129">
-        <v>50</v>
-      </c>
-      <c r="I129" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J129" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="P129" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R129" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S129" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T129" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U129">
-        <v>4</v>
-      </c>
-      <c r="W129" t="str">
-        <v>null</v>
-      </c>
-      <c r="X129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>63167</v>
-      </c>
-      <c r="B130">
-        <v>2025</v>
-      </c>
-      <c r="C130" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D130">
-        <v>4</v>
-      </c>
-      <c r="E130" t="str">
-        <v>Douglas Oswaldo Arriola Monterroso</v>
-      </c>
-      <c r="F130" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G130" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H130">
-        <v>50</v>
-      </c>
-      <c r="I130" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J130" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="P130" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R130" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S130" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T130" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U130">
-        <v>4</v>
-      </c>
-      <c r="W130" t="str">
-        <v>null</v>
-      </c>
-      <c r="X130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>63169</v>
-      </c>
-      <c r="B131">
-        <v>2025</v>
-      </c>
-      <c r="C131" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D131">
-        <v>4</v>
-      </c>
-      <c r="E131" t="str">
-        <v>Egidio Neftalí Rodas Cifuentes</v>
-      </c>
-      <c r="F131" t="str">
-        <v>Kevin Hernández</v>
-      </c>
-      <c r="G131" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H131">
-        <v>50</v>
-      </c>
-      <c r="I131" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J131" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="P131" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R131" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S131" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T131" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U131">
-        <v>4</v>
-      </c>
-      <c r="W131" t="str">
-        <v>null</v>
-      </c>
-      <c r="X131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>63171</v>
-      </c>
-      <c r="B132">
-        <v>2025</v>
-      </c>
-      <c r="C132" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-      <c r="E132" t="str">
-        <v>Jeannie Joanna Balcárcel Remón</v>
-      </c>
-      <c r="F132" t="str">
-        <v>Kevin Hernández</v>
-      </c>
-      <c r="G132" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H132">
-        <v>50</v>
-      </c>
-      <c r="I132" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J132" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R132" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S132" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T132" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U132">
-        <v>5</v>
-      </c>
-      <c r="W132" t="str">
-        <v>null</v>
-      </c>
-      <c r="X132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>63172</v>
-      </c>
-      <c r="B133">
-        <v>2025</v>
-      </c>
-      <c r="C133" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133" t="str">
-        <v>DAVID ANTONIO MENDEZ ARCHILA</v>
-      </c>
-      <c r="F133" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G133" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H133">
-        <v>50</v>
-      </c>
-      <c r="I133" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J133" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R133" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S133" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T133" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U133">
-        <v>5</v>
-      </c>
-      <c r="W133" t="str">
-        <v>null</v>
-      </c>
-      <c r="X133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>63173</v>
-      </c>
-      <c r="B134">
-        <v>2025</v>
-      </c>
-      <c r="C134" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134" t="str">
-        <v>Lourdes Mariela Gonzalez Soto</v>
-      </c>
-      <c r="F134" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G134" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H134">
-        <v>50</v>
-      </c>
-      <c r="I134" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J134" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="P134" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R134" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S134" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T134" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U134">
-        <v>5</v>
-      </c>
-      <c r="W134" t="str">
-        <v>null</v>
-      </c>
-      <c r="X134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>63177</v>
-      </c>
-      <c r="B135">
-        <v>2025</v>
-      </c>
-      <c r="C135" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135" t="str">
-        <v>Javier Enrique Ruata Flores</v>
-      </c>
-      <c r="F135" t="str">
-        <v>Daniel Jacobo</v>
-      </c>
-      <c r="G135" t="str">
-        <v>Sobre Vehículos</v>
-      </c>
-      <c r="H135">
-        <v>50</v>
-      </c>
-      <c r="I135" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J135" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="P135" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R135" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S135" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T135" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U135">
-        <v>5</v>
-      </c>
-      <c r="W135" t="str">
-        <v>null</v>
-      </c>
-      <c r="X135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>63181</v>
-      </c>
-      <c r="B136">
-        <v>2025</v>
-      </c>
-      <c r="C136" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D136">
-        <v>6</v>
-      </c>
-      <c r="E136" t="str">
-        <v>Saraí González</v>
-      </c>
-      <c r="F136" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G136" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H136">
-        <v>50</v>
-      </c>
-      <c r="I136" t="str">
-        <v>Facebook</v>
-      </c>
-      <c r="J136" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R136" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S136" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T136" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U136">
-        <v>6</v>
-      </c>
-      <c r="W136" t="str">
-        <v>null</v>
-      </c>
-      <c r="X136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>63182</v>
-      </c>
-      <c r="B137">
-        <v>2025</v>
-      </c>
-      <c r="C137" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D137">
-        <v>6</v>
-      </c>
-      <c r="E137" t="str">
-        <v>Daniel Alejandro Garcia Boror</v>
-      </c>
-      <c r="F137" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G137" t="str">
-        <v>Sobre Vehículos</v>
-      </c>
-      <c r="H137">
-        <v>50</v>
-      </c>
-      <c r="I137" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J137" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R137" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S137" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T137" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U137">
-        <v>6</v>
-      </c>
-      <c r="W137" t="str">
-        <v>null</v>
-      </c>
-      <c r="X137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>63183</v>
-      </c>
-      <c r="B138">
-        <v>2025</v>
-      </c>
-      <c r="C138" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D138">
-        <v>6</v>
-      </c>
-      <c r="E138" t="str">
-        <v>Alva Maritza Mazariegos Scott</v>
-      </c>
-      <c r="F138" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G138" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H138">
-        <v>50</v>
-      </c>
-      <c r="I138" t="str">
-        <v>Agencia</v>
-      </c>
-      <c r="J138" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="P138" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R138" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S138" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T138" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U138">
-        <v>6</v>
-      </c>
-      <c r="W138" t="str">
-        <v>null</v>
-      </c>
-      <c r="X138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>63186</v>
-      </c>
-      <c r="B139">
-        <v>2025</v>
-      </c>
-      <c r="C139" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D139">
-        <v>6</v>
-      </c>
-      <c r="E139" t="str">
-        <v>Eva Rebeca Chamale Pacay</v>
-      </c>
-      <c r="F139" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G139" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H139">
-        <v>50</v>
-      </c>
-      <c r="I139" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J139" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="P139" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R139" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S139" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T139" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U139">
-        <v>6</v>
-      </c>
-      <c r="W139" t="str">
-        <v>null</v>
-      </c>
-      <c r="X139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>63187</v>
-      </c>
-      <c r="B140">
-        <v>2025</v>
-      </c>
-      <c r="C140" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D140">
-        <v>6</v>
-      </c>
-      <c r="E140" t="str">
-        <v>Byron Giovanni Martínez Saavedra</v>
-      </c>
-      <c r="F140" t="str">
-        <v>Kevin Hernández</v>
-      </c>
-      <c r="G140" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H140">
-        <v>50</v>
-      </c>
-      <c r="I140" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J140" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R140" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S140" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T140" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U140">
-        <v>6</v>
-      </c>
-      <c r="W140" t="str">
-        <v>null</v>
-      </c>
-      <c r="X140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>63190</v>
-      </c>
-      <c r="B141">
-        <v>2025</v>
-      </c>
-      <c r="C141" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D141">
-        <v>7</v>
-      </c>
-      <c r="E141" t="str">
-        <v>Industria de bebida vida sociedad anonima</v>
-      </c>
-      <c r="F141" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G141" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H141">
-        <v>50</v>
-      </c>
-      <c r="I141" t="str">
-        <v>Recurrente</v>
-      </c>
-      <c r="J141" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R141" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S141" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T141" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U141">
-        <v>7</v>
-      </c>
-      <c r="W141" t="str">
-        <v>null</v>
-      </c>
-      <c r="X141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>63192</v>
-      </c>
-      <c r="B142">
-        <v>2025</v>
-      </c>
-      <c r="C142" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D142">
-        <v>7</v>
-      </c>
-      <c r="E142" t="str">
-        <v>Carlos Eduardo Yanes rueda</v>
-      </c>
-      <c r="F142" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G142" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H142">
-        <v>50</v>
-      </c>
-      <c r="I142" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J142" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="P142" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R142" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S142" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T142" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U142">
-        <v>7</v>
-      </c>
-      <c r="W142" t="str">
-        <v>null</v>
-      </c>
-      <c r="X142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>63194</v>
-      </c>
-      <c r="B143">
-        <v>2025</v>
-      </c>
-      <c r="C143" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D143">
-        <v>7</v>
-      </c>
-      <c r="E143" t="str">
-        <v>BRAYAN ERNESTO CASIMIRO MEJIA</v>
-      </c>
-      <c r="F143" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G143" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H143">
-        <v>50</v>
-      </c>
-      <c r="I143" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J143" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="P143" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R143" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S143" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T143" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U143">
-        <v>7</v>
-      </c>
-      <c r="W143" t="str">
-        <v>null</v>
-      </c>
-      <c r="X143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>63195</v>
-      </c>
-      <c r="B144">
-        <v>2025</v>
-      </c>
-      <c r="C144" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D144">
-        <v>7</v>
-      </c>
-      <c r="E144" t="str">
-        <v>Hector Oswaldo Pamal Martinez</v>
-      </c>
-      <c r="F144" t="str">
-        <v>Kevin Hernández</v>
-      </c>
-      <c r="G144" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H144">
-        <v>50</v>
-      </c>
-      <c r="I144" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J144" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="P144" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R144" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S144" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T144" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U144">
-        <v>7</v>
-      </c>
-      <c r="W144" t="str">
-        <v>null</v>
-      </c>
-      <c r="X144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>63196</v>
-      </c>
-      <c r="B145">
-        <v>2025</v>
-      </c>
-      <c r="C145" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D145">
-        <v>7</v>
-      </c>
-      <c r="E145" t="str">
-        <v>JOSE CARLOS TOLIVIA GUERRA</v>
-      </c>
-      <c r="F145" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G145" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H145">
-        <v>50</v>
-      </c>
-      <c r="I145" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J145" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="P145" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R145" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S145" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T145" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U145">
-        <v>7</v>
-      </c>
-      <c r="W145" t="str">
-        <v>null</v>
-      </c>
-      <c r="X145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>63197</v>
-      </c>
-      <c r="B146">
-        <v>2025</v>
-      </c>
-      <c r="C146" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D146">
-        <v>7</v>
-      </c>
-      <c r="E146" t="str">
-        <v>ALAN ESTUARDO LOPEZ CHUN</v>
-      </c>
-      <c r="F146" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G146" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H146">
-        <v>50</v>
-      </c>
-      <c r="I146" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J146" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R146" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S146" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T146" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U146">
-        <v>7</v>
-      </c>
-      <c r="W146" t="str">
-        <v>null</v>
-      </c>
-      <c r="X146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>63201</v>
-      </c>
-      <c r="B147">
-        <v>2025</v>
-      </c>
-      <c r="C147" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D147">
-        <v>8</v>
-      </c>
-      <c r="E147" t="str">
-        <v>Dalmy Maria Mercedes Perez Lopez de trujillo</v>
-      </c>
-      <c r="F147" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G147" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H147">
-        <v>50</v>
-      </c>
-      <c r="I147" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J147" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="P147" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R147" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S147" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T147" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U147">
-        <v>8</v>
-      </c>
-      <c r="W147" t="str">
-        <v>null</v>
-      </c>
-      <c r="X147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>63203</v>
-      </c>
-      <c r="B148">
-        <v>2025</v>
-      </c>
-      <c r="C148" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D148">
-        <v>8</v>
-      </c>
-      <c r="E148" t="str">
-        <v>Alexander Norberto Sanchez Reinosa</v>
-      </c>
-      <c r="F148" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G148" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H148">
-        <v>50</v>
-      </c>
-      <c r="I148" t="str">
-        <v>Agencia</v>
-      </c>
-      <c r="J148" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="P148" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R148" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S148" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T148" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U148">
-        <v>8</v>
-      </c>
-      <c r="W148" t="str">
-        <v>null</v>
-      </c>
-      <c r="X148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>63204</v>
-      </c>
-      <c r="B149">
-        <v>2025</v>
-      </c>
-      <c r="C149" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D149">
-        <v>8</v>
-      </c>
-      <c r="E149" t="str">
-        <v>walter elieser Molina Peraza</v>
-      </c>
-      <c r="F149" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G149" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H149">
-        <v>50</v>
-      </c>
-      <c r="I149" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J149" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="P149" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R149" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S149" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T149" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U149">
-        <v>8</v>
-      </c>
-      <c r="W149" t="str">
-        <v>null</v>
-      </c>
-      <c r="X149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>63210</v>
-      </c>
-      <c r="B150">
-        <v>2025</v>
-      </c>
-      <c r="C150" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D150">
-        <v>11</v>
-      </c>
-      <c r="E150" t="str">
-        <v>Jorge Rolando Retana Morales</v>
-      </c>
-      <c r="F150" t="str">
-        <v>Sergio Chavac</v>
-      </c>
-      <c r="G150" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H150">
-        <v>50</v>
-      </c>
-      <c r="I150" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J150" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="P150" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R150" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S150" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T150" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U150">
-        <v>11</v>
-      </c>
-      <c r="W150" t="str">
-        <v>null</v>
-      </c>
-      <c r="X150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>63212</v>
-      </c>
-      <c r="B151">
-        <v>2025</v>
-      </c>
-      <c r="C151" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D151">
-        <v>11</v>
-      </c>
-      <c r="E151" t="str">
-        <v>Julio Enrique Alvarado Tomas</v>
-      </c>
-      <c r="F151" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G151" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H151">
-        <v>50</v>
-      </c>
-      <c r="I151" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J151" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="P151" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R151" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S151" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T151" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U151">
-        <v>11</v>
-      </c>
-      <c r="W151" t="str">
-        <v>null</v>
-      </c>
-      <c r="X151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>63213</v>
-      </c>
-      <c r="B152">
-        <v>2025</v>
-      </c>
-      <c r="C152" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D152">
-        <v>11</v>
-      </c>
-      <c r="E152" t="str">
-        <v>Sergio Orlando Rivas Rosales</v>
-      </c>
-      <c r="F152" t="str">
-        <v>Daniel Jacobo</v>
-      </c>
-      <c r="G152" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H152">
-        <v>50</v>
-      </c>
-      <c r="I152" t="str">
-        <v>Referido</v>
-      </c>
-      <c r="J152" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="P152" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R152" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S152" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T152" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U152">
-        <v>11</v>
-      </c>
-      <c r="W152" t="str">
-        <v>null</v>
-      </c>
-      <c r="X152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>63214</v>
-      </c>
-      <c r="B153">
-        <v>2025</v>
-      </c>
-      <c r="C153" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D153">
-        <v>11</v>
-      </c>
-      <c r="E153" t="str">
-        <v>DAVID FERNANDO AGUILAR GALDAMEZ</v>
-      </c>
-      <c r="F153" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G153" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H153">
-        <v>50</v>
-      </c>
-      <c r="I153" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J153" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="P153" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R153" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S153" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T153" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U153">
-        <v>11</v>
-      </c>
-      <c r="W153" t="str">
-        <v>null</v>
-      </c>
-      <c r="X153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>63215</v>
-      </c>
-      <c r="B154">
-        <v>2025</v>
-      </c>
-      <c r="C154" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D154">
-        <v>11</v>
-      </c>
-      <c r="E154" t="str">
-        <v>Christopher Yoram Estrada Arana</v>
-      </c>
-      <c r="F154" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G154" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H154">
-        <v>50</v>
-      </c>
-      <c r="I154" t="str">
-        <v>Facebook</v>
-      </c>
-      <c r="J154" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="P154" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R154" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S154" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T154" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U154">
-        <v>11</v>
-      </c>
-      <c r="W154" t="str">
-        <v>null</v>
-      </c>
-      <c r="X154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>63216</v>
-      </c>
-      <c r="B155">
-        <v>2025</v>
-      </c>
-      <c r="C155" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D155">
-        <v>11</v>
-      </c>
-      <c r="E155" t="str">
-        <v>Melany Quintanilla Monterroso</v>
-      </c>
-      <c r="F155" t="str">
-        <v>Kevin Hernández</v>
-      </c>
-      <c r="G155" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H155">
-        <v>50</v>
-      </c>
-      <c r="I155" t="str">
-        <v>Recurrente activo</v>
-      </c>
-      <c r="J155" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="P155" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R155" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S155" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T155" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U155">
-        <v>11</v>
-      </c>
-      <c r="W155" t="str">
-        <v>null</v>
-      </c>
-      <c r="X155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>63219</v>
-      </c>
-      <c r="B156">
-        <v>2025</v>
-      </c>
-      <c r="C156" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D156">
-        <v>12</v>
-      </c>
-      <c r="E156" t="str">
-        <v>Marilyn Samayoa</v>
-      </c>
-      <c r="F156" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G156" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H156">
-        <v>50</v>
-      </c>
-      <c r="I156" t="str">
-        <v>Plataforma-Google</v>
-      </c>
-      <c r="J156" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="P156" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R156" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S156" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T156" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U156">
-        <v>12</v>
-      </c>
-      <c r="W156" t="str">
-        <v>null</v>
-      </c>
-      <c r="X156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>63220</v>
-      </c>
-      <c r="B157">
-        <v>2025</v>
-      </c>
-      <c r="C157" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D157">
-        <v>12</v>
-      </c>
-      <c r="E157" t="str">
-        <v>DALMY MARIA MERCEDES PEREZ LOPEZ DE TRUJILLO</v>
-      </c>
-      <c r="F157" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G157" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H157">
-        <v>50</v>
-      </c>
-      <c r="I157" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J157" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="P157" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R157" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S157" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T157" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U157">
-        <v>12</v>
-      </c>
-      <c r="W157" t="str">
-        <v>null</v>
-      </c>
-      <c r="X157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>63221</v>
-      </c>
-      <c r="B158">
-        <v>2025</v>
-      </c>
-      <c r="C158" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D158">
-        <v>12</v>
-      </c>
-      <c r="E158" t="str">
-        <v>José Andres Galindo Rodas</v>
-      </c>
-      <c r="F158" t="str">
-        <v>Marjory Figueroa</v>
-      </c>
-      <c r="G158" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H158">
-        <v>50</v>
-      </c>
-      <c r="I158" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J158" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="P158" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R158" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S158" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T158" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U158">
-        <v>12</v>
-      </c>
-      <c r="W158" t="str">
-        <v>null</v>
-      </c>
-      <c r="X158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>63222</v>
-      </c>
-      <c r="B159">
-        <v>2025</v>
-      </c>
-      <c r="C159" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D159">
-        <v>12</v>
-      </c>
-      <c r="E159" t="str">
-        <v>ARAMY ESTUARDO ESCOBAR TZAY</v>
-      </c>
-      <c r="F159" t="str">
-        <v>Daniel Jacobo</v>
-      </c>
-      <c r="G159" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H159">
-        <v>50</v>
-      </c>
-      <c r="I159" t="str">
-        <v>Agencia</v>
-      </c>
-      <c r="J159" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="P159" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R159" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S159" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T159" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U159">
-        <v>12</v>
-      </c>
-      <c r="W159" t="str">
-        <v>null</v>
-      </c>
-      <c r="X159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>63223</v>
-      </c>
-      <c r="B160">
-        <v>2025</v>
-      </c>
-      <c r="C160" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D160">
-        <v>12</v>
-      </c>
-      <c r="E160" t="str">
-        <v>OSCAR AUGUSTO ROQUEL BARILLAS</v>
-      </c>
-      <c r="F160" t="str">
-        <v>Francisco Chinchilla</v>
-      </c>
-      <c r="G160" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H160">
-        <v>50</v>
-      </c>
-      <c r="I160" t="str">
-        <v>Predio</v>
-      </c>
-      <c r="J160" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="P160" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R160" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S160" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T160" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U160">
-        <v>12</v>
-      </c>
-      <c r="W160" t="str">
-        <v>null</v>
-      </c>
-      <c r="X160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>63224</v>
-      </c>
-      <c r="B161">
-        <v>2025</v>
-      </c>
-      <c r="C161" t="str">
-        <v>ago</v>
-      </c>
-      <c r="D161">
-        <v>12</v>
-      </c>
-      <c r="E161" t="str">
-        <v>Industria de bebida vida sociedad anonima</v>
-      </c>
-      <c r="F161" t="str">
-        <v>Brandon de Leon</v>
-      </c>
-      <c r="G161" t="str">
-        <v>Autocompras</v>
-      </c>
-      <c r="H161">
-        <v>50</v>
-      </c>
-      <c r="I161" t="str">
-        <v>Recurrente</v>
-      </c>
-      <c r="J161" t="str">
-        <v>Abierta</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="P161" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="R161" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="S161" t="str">
-        <v>No definido</v>
-      </c>
-      <c r="T161" t="str">
-        <v>ago</v>
-      </c>
-      <c r="U161">
-        <v>12</v>
-      </c>
-      <c r="W161" t="str">
-        <v>null</v>
-      </c>
-      <c r="X161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>Totals</v>
-      </c>
-      <c r="X162">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A162:W162"/>
+    <mergeCell ref="A116:W116"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X162"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X116"/>
   </ignoredErrors>
 </worksheet>
 </file>